--- a/models/BERTATT2ITM/restaurants/gijon/c548c5687b54d0685d7aa823de110acb/att_text_4106735793.xlsx
+++ b/models/BERTATT2ITM/restaurants/gijon/c548c5687b54d0685d7aa823de110acb/att_text_4106735793.xlsx
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01313018798828125</v>
+        <v>0.1553955078125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008026123046875</v>
+        <v>0.152587890625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004413604736328125</v>
+        <v>0.147705078125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0125885009765625</v>
+        <v>0.16015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00714874267578125</v>
+        <v>0.1573486328125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006931304931640625</v>
+        <v>0.155517578125</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00287628173828125</v>
+        <v>0.1484375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00714874267578125</v>
+        <v>0.1573486328125</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01023101806640625</v>
+        <v>0.15673828125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00658416748046875</v>
+        <v>0.1531982421875</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007843017578125</v>
+        <v>-0.10162353515625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007640838623046875</v>
+        <v>-0.0830078125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001358985900878906</v>
+        <v>-0.0867919921875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0104522705078125</v>
+        <v>-0.08892822265625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01026153564453125</v>
+        <v>-0.08551025390625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01128387451171875</v>
+        <v>-0.0848388671875</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0007195472717285156</v>
+        <v>-0.085693359375</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01026153564453125</v>
+        <v>-0.08551025390625</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01073455810546875</v>
+        <v>-0.0975341796875</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00704193115234375</v>
+        <v>-0.08795166015625</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.055999755859375</v>
+        <v>-0.10272216796875</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.065673828125</v>
+        <v>-0.10687255859375</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07855224609375</v>
+        <v>-0.115234375</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.070068359375</v>
+        <v>-0.108154296875</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0565185546875</v>
+        <v>-0.1094970703125</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.045379638671875</v>
+        <v>-0.10205078125</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.08282470703125</v>
+        <v>-0.1158447265625</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0565185546875</v>
+        <v>-0.1094970703125</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.046875</v>
+        <v>-0.10223388671875</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.056732177734375</v>
+        <v>-0.1070556640625</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0272064208984375</v>
+        <v>0.188720703125</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0263824462890625</v>
+        <v>0.1805419921875</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0281982421875</v>
+        <v>0.17822265625</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0252685546875</v>
+        <v>0.182861328125</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0263671875</v>
+        <v>0.179443359375</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0330810546875</v>
+        <v>0.171630859375</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0311431884765625</v>
+        <v>0.1717529296875</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0263671875</v>
+        <v>0.179443359375</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.029876708984375</v>
+        <v>0.186767578125</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.028076171875</v>
+        <v>0.1751708984375</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.137451171875</v>
+        <v>-0.07666015625</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.12115478515625</v>
+        <v>-0.06634521484375</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1309814453125</v>
+        <v>-0.067626953125</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.130859375</v>
+        <v>-0.0731201171875</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1300048828125</v>
+        <v>-0.0709228515625</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.132080078125</v>
+        <v>-0.07061767578125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.135498046875</v>
+        <v>-0.06793212890625</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1300048828125</v>
+        <v>-0.0709228515625</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1363525390625</v>
+        <v>-0.07763671875</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.12060546875</v>
+        <v>-0.06573486328125</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08258056640625</v>
+        <v>0.0248565673828125</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.07525634765625</v>
+        <v>0.034332275390625</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0684814453125</v>
+        <v>0.0360107421875</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.076416015625</v>
+        <v>0.031585693359375</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.080078125</v>
+        <v>0.036865234375</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07672119140625</v>
+        <v>0.0253448486328125</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06793212890625</v>
+        <v>0.040130615234375</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.080078125</v>
+        <v>0.036865234375</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.08489990234375</v>
+        <v>0.026031494140625</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.076904296875</v>
+        <v>0.023529052734375</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.020050048828125</v>
+        <v>0.02874755859375</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.031036376953125</v>
+        <v>0.054840087890625</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.018707275390625</v>
+        <v>0.049835205078125</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0298919677734375</v>
+        <v>0.03277587890625</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02783203125</v>
+        <v>0.0545654296875</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01338958740234375</v>
+        <v>0.04351806640625</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0194244384765625</v>
+        <v>0.049285888671875</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02783203125</v>
+        <v>0.0545654296875</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.026519775390625</v>
+        <v>0.0311431884765625</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0361328125</v>
+        <v>0.037994384765625</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08099365234375</v>
+        <v>-0.0294189453125</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.08123779296875</v>
+        <v>-0.035125732421875</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0802001953125</v>
+        <v>-0.027587890625</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07958984375</v>
+        <v>-0.035552978515625</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.080322265625</v>
+        <v>-0.03082275390625</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0826416015625</v>
+        <v>-0.035308837890625</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07916259765625</v>
+        <v>-0.029327392578125</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.080322265625</v>
+        <v>-0.03082275390625</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0819091796875</v>
+        <v>-0.03216552734375</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.08306884765625</v>
+        <v>-0.033172607421875</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.017974853515625</v>
+        <v>0.123291015625</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0275726318359375</v>
+        <v>0.13232421875</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0266876220703125</v>
+        <v>0.1317138671875</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.027435302734375</v>
+        <v>0.1297607421875</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0272369384765625</v>
+        <v>0.1282958984375</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0203704833984375</v>
+        <v>0.12237548828125</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0284576416015625</v>
+        <v>0.130126953125</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0272369384765625</v>
+        <v>0.1282958984375</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0224456787109375</v>
+        <v>0.12054443359375</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.039306640625</v>
+        <v>0.12054443359375</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0205078125</v>
+        <v>-0.11456298828125</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.020355224609375</v>
+        <v>-0.109130859375</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0259552001953125</v>
+        <v>-0.1077880859375</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0184478759765625</v>
+        <v>-0.10821533203125</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0182647705078125</v>
+        <v>-0.1097412109375</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0225830078125</v>
+        <v>-0.09527587890625</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.025970458984375</v>
+        <v>-0.11053466796875</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0182647705078125</v>
+        <v>-0.1097412109375</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01708984375</v>
+        <v>-0.1160888671875</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0203094482421875</v>
+        <v>-0.09478759765625</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.052215576171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05194091796875</v>
+        <v>-0.125244140625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.055694580078125</v>
+        <v>-0.12310791015625</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06341552734375</v>
+        <v>-0.1177978515625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0298309326171875</v>
+        <v>-0.12164306640625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04339599609375</v>
+        <v>-0.10626220703125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.047119140625</v>
+        <v>-0.126953125</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0298309326171875</v>
+        <v>-0.12164306640625</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0458984375</v>
+        <v>-0.11859130859375</v>
       </c>
       <c r="K13" t="n">
-        <v>0.038177490234375</v>
+        <v>-0.11236572265625</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004320144653320312</v>
+        <v>0.0161590576171875</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.001468658447265625</v>
+        <v>0.01473236083984375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001120567321777344</v>
+        <v>0.018646240234375</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00339508056640625</v>
+        <v>0.0192108154296875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001336097717285156</v>
+        <v>0.015869140625</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.003498077392578125</v>
+        <v>0.01218414306640625</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00038909912109375</v>
+        <v>0.0194091796875</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001336097717285156</v>
+        <v>0.015869140625</v>
       </c>
       <c r="J14" t="n">
-        <v>3.510713577270508e-05</v>
+        <v>0.013885498046875</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001864433288574219</v>
+        <v>0.01390838623046875</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0924072265625</v>
+        <v>0.168212890625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08587646484375</v>
+        <v>0.1815185546875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08782958984375</v>
+        <v>0.1832275390625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.091552734375</v>
+        <v>0.171630859375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08892822265625</v>
+        <v>0.1810302734375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09661865234375</v>
+        <v>0.1700439453125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.085205078125</v>
+        <v>0.185791015625</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08892822265625</v>
+        <v>0.1810302734375</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08990478515625</v>
+        <v>0.168212890625</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0899658203125</v>
+        <v>0.166015625</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1156005859375</v>
+        <v>-0.002508163452148438</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11346435546875</v>
+        <v>0.006526947021484375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09576416015625</v>
+        <v>0.0001245737075805664</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1129150390625</v>
+        <v>0.004840850830078125</v>
       </c>
       <c r="F16" t="n">
-        <v>0.10260009765625</v>
+        <v>-0.002155303955078125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09747314453125</v>
+        <v>0.005645751953125</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09515380859375</v>
+        <v>-0.0002090930938720703</v>
       </c>
       <c r="I16" t="n">
-        <v>0.10260009765625</v>
+        <v>-0.002155303955078125</v>
       </c>
       <c r="J16" t="n">
-        <v>0.11334228515625</v>
+        <v>-0.003767013549804688</v>
       </c>
       <c r="K16" t="n">
-        <v>0.11077880859375</v>
+        <v>0.0133514404296875</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.058929443359375</v>
+        <v>-0.097900390625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0657958984375</v>
+        <v>-0.0994873046875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04736328125</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.060577392578125</v>
+        <v>-0.0938720703125</v>
       </c>
       <c r="F17" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.09515380859375</v>
       </c>
       <c r="G17" t="n">
-        <v>0.055389404296875</v>
+        <v>-0.08612060546875</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04400634765625</v>
+        <v>-0.089599609375</v>
       </c>
       <c r="I17" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.09515380859375</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05853271484375</v>
+        <v>-0.098876953125</v>
       </c>
       <c r="K17" t="n">
-        <v>0.053680419921875</v>
+        <v>-0.08135986328125</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07366943359375</v>
+        <v>-0.1724853515625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070068359375</v>
+        <v>-0.1668701171875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07110595703125</v>
+        <v>-0.15966796875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07080078125</v>
+        <v>-0.1656494140625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0760498046875</v>
+        <v>-0.1634521484375</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0775146484375</v>
+        <v>-0.1715087890625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0697021484375</v>
+        <v>-0.1650390625</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0760498046875</v>
+        <v>-0.1634521484375</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0728759765625</v>
+        <v>-0.1734619140625</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0738525390625</v>
+        <v>-0.164794921875</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0574951171875</v>
+        <v>0.047454833984375</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.055145263671875</v>
+        <v>0.04644775390625</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.062744140625</v>
+        <v>0.04595947265625</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.057830810546875</v>
+        <v>0.036956787109375</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.057952880859375</v>
+        <v>0.04534912109375</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.05523681640625</v>
+        <v>0.03997802734375</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0643310546875</v>
+        <v>0.04437255859375</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.057952880859375</v>
+        <v>0.04534912109375</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.05511474609375</v>
+        <v>0.05120849609375</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0577392578125</v>
+        <v>0.037353515625</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01093292236328125</v>
+        <v>0.215087890625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0095672607421875</v>
+        <v>0.2103271484375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01062774658203125</v>
+        <v>0.2100830078125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01111602783203125</v>
+        <v>0.2044677734375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.010894775390625</v>
+        <v>0.2122802734375</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0106353759765625</v>
+        <v>0.1962890625</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002857208251953125</v>
+        <v>0.2041015625</v>
       </c>
       <c r="I20" t="n">
-        <v>0.010894775390625</v>
+        <v>0.2122802734375</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00852203369140625</v>
+        <v>0.212646484375</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01355743408203125</v>
+        <v>0.1932373046875</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.105712890625</v>
+        <v>0.04107666015625</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.100830078125</v>
+        <v>0.047393798828125</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1077880859375</v>
+        <v>0.048095703125</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1085205078125</v>
+        <v>0.046051025390625</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.10540771484375</v>
+        <v>0.048797607421875</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.11077880859375</v>
+        <v>0.039642333984375</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.10809326171875</v>
+        <v>0.046142578125</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.10540771484375</v>
+        <v>0.048797607421875</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.10455322265625</v>
+        <v>0.040496826171875</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1094970703125</v>
+        <v>0.041046142578125</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006839752197265625</v>
+        <v>-0.1463623046875</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.016571044921875</v>
+        <v>-0.152587890625</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00403594970703125</v>
+        <v>-0.148193359375</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01105499267578125</v>
+        <v>-0.14599609375</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00757598876953125</v>
+        <v>-0.149658203125</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0060577392578125</v>
+        <v>-0.1424560546875</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.00635528564453125</v>
+        <v>-0.1475830078125</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.00757598876953125</v>
+        <v>-0.149658203125</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0138397216796875</v>
+        <v>-0.14892578125</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0138702392578125</v>
+        <v>-0.1402587890625</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.040130615234375</v>
+        <v>0.0855712890625</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.045623779296875</v>
+        <v>0.08428955078125</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03704833984375</v>
+        <v>0.084228515625</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.04278564453125</v>
+        <v>0.0819091796875</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04241943359375</v>
+        <v>0.08721923828125</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.036468505859375</v>
+        <v>0.07659912109375</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.033050537109375</v>
+        <v>0.08599853515625</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04241943359375</v>
+        <v>0.08721923828125</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.03826904296875</v>
+        <v>0.08660888671875</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.04339599609375</v>
+        <v>0.0758056640625</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.019744873046875</v>
+        <v>-0.172607421875</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.025634765625</v>
+        <v>-0.166259765625</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0303192138671875</v>
+        <v>-0.1766357421875</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0255279541015625</v>
+        <v>-0.16357421875</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0287933349609375</v>
+        <v>-0.1710205078125</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0298919677734375</v>
+        <v>-0.16064453125</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.03363037109375</v>
+        <v>-0.1717529296875</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0287933349609375</v>
+        <v>-0.1710205078125</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.023529052734375</v>
+        <v>-0.168212890625</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.032257080078125</v>
+        <v>-0.152587890625</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.07232666015625</v>
+        <v>-0.198974609375</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06683349609375</v>
+        <v>-0.20361328125</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06561279296875</v>
+        <v>-0.201171875</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0755615234375</v>
+        <v>-0.191162109375</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.07525634765625</v>
+        <v>-0.2027587890625</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0806884765625</v>
+        <v>-0.194580078125</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.06707763671875</v>
+        <v>-0.2056884765625</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.07525634765625</v>
+        <v>-0.2027587890625</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.07501220703125</v>
+        <v>-0.201416015625</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0751953125</v>
+        <v>-0.190185546875</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.05059814453125</v>
+        <v>0.0548095703125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0545654296875</v>
+        <v>0.03472900390625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.039337158203125</v>
+        <v>0.03521728515625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.039947509765625</v>
+        <v>0.051300048828125</v>
       </c>
       <c r="F26" t="n">
-        <v>0.050537109375</v>
+        <v>0.0281829833984375</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0494384765625</v>
+        <v>0.038604736328125</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03448486328125</v>
+        <v>0.0382080078125</v>
       </c>
       <c r="I26" t="n">
-        <v>0.050537109375</v>
+        <v>0.0281829833984375</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0487060546875</v>
+        <v>0.0504150390625</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04736328125</v>
+        <v>0.03338623046875</v>
       </c>
     </row>
     <row r="27">
@@ -1417,34 +1417,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0296783447265625</v>
+        <v>0.0115509033203125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.033233642578125</v>
+        <v>0.0234527587890625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01430511474609375</v>
+        <v>0.0295562744140625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.029205322265625</v>
+        <v>0.0096282958984375</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01904296875</v>
+        <v>0.028106689453125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.020904541015625</v>
+        <v>0.026885986328125</v>
       </c>
       <c r="H27" t="n">
-        <v>0.014129638671875</v>
+        <v>0.0300750732421875</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01904296875</v>
+        <v>0.028106689453125</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03436279296875</v>
+        <v>0.0109100341796875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0194244384765625</v>
+        <v>0.0236663818359375</v>
       </c>
     </row>
     <row r="28">
@@ -1454,34 +1454,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.020416259765625</v>
+        <v>-0.0008683204650878906</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0194854736328125</v>
+        <v>-0.0078582763671875</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01308441162109375</v>
+        <v>-0.01323699951171875</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0208892822265625</v>
+        <v>-0.005428314208984375</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0081787109375</v>
+        <v>-0.008514404296875</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0106353759765625</v>
+        <v>0.002641677856445312</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.019073486328125</v>
+        <v>-0.014190673828125</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0081787109375</v>
+        <v>-0.008514404296875</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0245513916015625</v>
+        <v>-0.003347396850585938</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.004913330078125</v>
+        <v>0.003583908081054688</v>
       </c>
     </row>
     <row r="29">
@@ -1491,34 +1491,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1300048828125</v>
+        <v>-0.07586669921875</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.12939453125</v>
+        <v>-0.061279296875</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1336669921875</v>
+        <v>-0.061676025390625</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.133544921875</v>
+        <v>-0.07061767578125</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.06597900390625</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1357421875</v>
+        <v>-0.059112548828125</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1336669921875</v>
+        <v>-0.06109619140625</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.06597900390625</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.133056640625</v>
+        <v>-0.08038330078125</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1453857421875</v>
+        <v>-0.06024169921875</v>
       </c>
     </row>
     <row r="30">
@@ -1528,34 +1528,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0404052734375</v>
+        <v>0.12939453125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.043060302734375</v>
+        <v>0.11590576171875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.049285888671875</v>
+        <v>0.11590576171875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.048065185546875</v>
+        <v>0.1253662109375</v>
       </c>
       <c r="F30" t="n">
-        <v>0.039093017578125</v>
+        <v>0.1163330078125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0379638671875</v>
+        <v>0.120849609375</v>
       </c>
       <c r="H30" t="n">
-        <v>0.052276611328125</v>
+        <v>0.115478515625</v>
       </c>
       <c r="I30" t="n">
-        <v>0.039093017578125</v>
+        <v>0.1163330078125</v>
       </c>
       <c r="J30" t="n">
-        <v>0.041046142578125</v>
+        <v>0.1329345703125</v>
       </c>
       <c r="K30" t="n">
-        <v>0.046783447265625</v>
+        <v>0.126220703125</v>
       </c>
     </row>
     <row r="31">
@@ -1565,34 +1565,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.08843994140625</v>
+        <v>-0.0338134765625</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.08612060546875</v>
+        <v>-0.0364990234375</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0992431640625</v>
+        <v>-0.04193115234375</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0892333984375</v>
+        <v>-0.0362548828125</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1060791015625</v>
+        <v>-0.04498291015625</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.11395263671875</v>
+        <v>-0.03759765625</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.09619140625</v>
+        <v>-0.039093017578125</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1060791015625</v>
+        <v>-0.04498291015625</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.089111328125</v>
+        <v>-0.03350830078125</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.110595703125</v>
+        <v>-0.04168701171875</v>
       </c>
     </row>
     <row r="32">
@@ -1602,34 +1602,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1212158203125</v>
+        <v>0.1510009765625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1185302734375</v>
+        <v>0.1558837890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1168212890625</v>
+        <v>0.157470703125</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11846923828125</v>
+        <v>0.15478515625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.11602783203125</v>
+        <v>0.15576171875</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1199951171875</v>
+        <v>0.148193359375</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11279296875</v>
+        <v>0.1590576171875</v>
       </c>
       <c r="I32" t="n">
-        <v>0.11602783203125</v>
+        <v>0.15576171875</v>
       </c>
       <c r="J32" t="n">
-        <v>0.12115478515625</v>
+        <v>0.150634765625</v>
       </c>
       <c r="K32" t="n">
-        <v>0.11456298828125</v>
+        <v>0.1495361328125</v>
       </c>
     </row>
     <row r="33">
@@ -1639,34 +1639,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1529541015625</v>
+        <v>-0.34130859375</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.141845703125</v>
+        <v>-0.33154296875</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1365966796875</v>
+        <v>-0.34326171875</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1390380859375</v>
+        <v>-0.344482421875</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.33984375</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.146484375</v>
+        <v>-0.327880859375</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1326904296875</v>
+        <v>-0.343994140625</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1395263671875</v>
+        <v>-0.33984375</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.152587890625</v>
+        <v>-0.339599609375</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.128662109375</v>
+        <v>-0.33544921875</v>
       </c>
     </row>
     <row r="34">
@@ -1676,34 +1676,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.024261474609375</v>
+        <v>-0.01062774658203125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0181732177734375</v>
+        <v>-0.0120849609375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03912353515625</v>
+        <v>-0.0176849365234375</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02252197265625</v>
+        <v>-0.0049896240234375</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03759765625</v>
+        <v>-0.01561737060546875</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0338134765625</v>
+        <v>-0.01214599609375</v>
       </c>
       <c r="H34" t="n">
-        <v>0.037506103515625</v>
+        <v>-0.017608642578125</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03759765625</v>
+        <v>-0.01561737060546875</v>
       </c>
       <c r="J34" t="n">
-        <v>0.021820068359375</v>
+        <v>-0.0080718994140625</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03607177734375</v>
+        <v>-0.0182037353515625</v>
       </c>
     </row>
     <row r="35">
@@ -1713,34 +1713,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.028045654296875</v>
+        <v>0.01641845703125</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03533935546875</v>
+        <v>0.01467132568359375</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.042449951171875</v>
+        <v>0.0171966552734375</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.029693603515625</v>
+        <v>0.0160980224609375</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0391845703125</v>
+        <v>0.018890380859375</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0312347412109375</v>
+        <v>0.0174407958984375</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.04156494140625</v>
+        <v>0.016632080078125</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0391845703125</v>
+        <v>0.018890380859375</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0252685546875</v>
+        <v>0.0165863037109375</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.037261962890625</v>
+        <v>0.0248565673828125</v>
       </c>
     </row>
     <row r="36">
@@ -1750,34 +1750,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.054168701171875</v>
+        <v>-0.09716796875</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.048919677734375</v>
+        <v>-0.060089111328125</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.046478271484375</v>
+        <v>-0.0687255859375</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.05194091796875</v>
+        <v>-0.07464599609375</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.04168701171875</v>
+        <v>-0.0660400390625</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0465087890625</v>
+        <v>-0.0723876953125</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.042449951171875</v>
+        <v>-0.0635986328125</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.04168701171875</v>
+        <v>-0.0660400390625</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.05145263671875</v>
+        <v>-0.0948486328125</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.04461669921875</v>
+        <v>-0.06854248046875</v>
       </c>
     </row>
     <row r="37">
@@ -1787,34 +1787,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08367919921875</v>
+        <v>0.06280517578125</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0784912109375</v>
+        <v>0.046905517578125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0794677734375</v>
+        <v>0.04229736328125</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08905029296875</v>
+        <v>0.049560546875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08087158203125</v>
+        <v>0.04425048828125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08160400390625</v>
+        <v>0.048309326171875</v>
       </c>
       <c r="H37" t="n">
-        <v>0.07818603515625</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08087158203125</v>
+        <v>0.04425048828125</v>
       </c>
       <c r="J37" t="n">
-        <v>0.08349609375</v>
+        <v>0.06451416015625</v>
       </c>
       <c r="K37" t="n">
-        <v>0.078857421875</v>
+        <v>0.043487548828125</v>
       </c>
     </row>
     <row r="38">
@@ -1824,34 +1824,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.08367919921875</v>
+        <v>-0.1220703125</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.08819580078125</v>
+        <v>-0.1031494140625</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0916748046875</v>
+        <v>-0.1016845703125</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.07598876953125</v>
+        <v>-0.11163330078125</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.10394287109375</v>
+        <v>-0.10565185546875</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.10443115234375</v>
+        <v>-0.10296630859375</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0994873046875</v>
+        <v>-0.103759765625</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.10394287109375</v>
+        <v>-0.10565185546875</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0947265625</v>
+        <v>-0.123046875</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.099365234375</v>
+        <v>-0.09619140625</v>
       </c>
     </row>
     <row r="39">
@@ -1861,34 +1861,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.018585205078125</v>
+        <v>-0.269775390625</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0228729248046875</v>
+        <v>-0.265869140625</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0294647216796875</v>
+        <v>-0.265625</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.02093505859375</v>
+        <v>-0.263671875</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03167724609375</v>
+        <v>-0.269287109375</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.035614013671875</v>
+        <v>-0.26220703125</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0262603759765625</v>
+        <v>-0.267822265625</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.03167724609375</v>
+        <v>-0.269287109375</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0162811279296875</v>
+        <v>-0.27001953125</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.03912353515625</v>
+        <v>-0.26806640625</v>
       </c>
     </row>
     <row r="40">
@@ -1898,34 +1898,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.040283203125</v>
+        <v>-0.0814208984375</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03558349609375</v>
+        <v>-0.091064453125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0212554931640625</v>
+        <v>-0.085205078125</v>
       </c>
       <c r="E40" t="n">
-        <v>0.031463623046875</v>
+        <v>-0.08233642578125</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0258026123046875</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="G40" t="n">
-        <v>0.033355712890625</v>
+        <v>-0.082275390625</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0170745849609375</v>
+        <v>-0.0826416015625</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0258026123046875</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="J40" t="n">
-        <v>0.039031982421875</v>
+        <v>-0.08795166015625</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0298309326171875</v>
+        <v>-0.08740234375</v>
       </c>
     </row>
     <row r="41">
@@ -1935,34 +1935,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.038818359375</v>
+        <v>0.05303955078125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.035064697265625</v>
+        <v>0.043914794921875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.035491943359375</v>
+        <v>0.05059814453125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.034210205078125</v>
+        <v>0.042327880859375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03662109375</v>
+        <v>0.04693603515625</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04364013671875</v>
+        <v>0.0504150390625</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03515625</v>
+        <v>0.050811767578125</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03662109375</v>
+        <v>0.04693603515625</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03948974609375</v>
+        <v>0.052978515625</v>
       </c>
       <c r="K41" t="n">
-        <v>0.039398193359375</v>
+        <v>0.04656982421875</v>
       </c>
     </row>
     <row r="42">
@@ -1972,34 +1972,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.0389404296875</v>
+        <v>0.0138397216796875</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.038970947265625</v>
+        <v>-0.00789642333984375</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.023162841796875</v>
+        <v>0.000980377197265625</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.0391845703125</v>
+        <v>0.01678466796875</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0306549072265625</v>
+        <v>-0.00418853759765625</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.032989501953125</v>
+        <v>0.00997161865234375</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.024810791015625</v>
+        <v>-0.003192901611328125</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.0306549072265625</v>
+        <v>-0.00418853759765625</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.042083740234375</v>
+        <v>0.01227569580078125</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0380859375</v>
+        <v>0.01438140869140625</v>
       </c>
     </row>
     <row r="43">
@@ -2009,34 +2009,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.043548583984375</v>
+        <v>-0.1031494140625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04931640625</v>
+        <v>-0.11370849609375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05206298828125</v>
+        <v>-0.10247802734375</v>
       </c>
       <c r="E43" t="n">
-        <v>0.045166015625</v>
+        <v>-0.1051025390625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.055267333984375</v>
+        <v>-0.1090087890625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.054534912109375</v>
+        <v>-0.10504150390625</v>
       </c>
       <c r="H43" t="n">
-        <v>0.053314208984375</v>
+        <v>-0.104248046875</v>
       </c>
       <c r="I43" t="n">
-        <v>0.055267333984375</v>
+        <v>-0.1090087890625</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0445556640625</v>
+        <v>-0.1043701171875</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05322265625</v>
+        <v>-0.10626220703125</v>
       </c>
     </row>
     <row r="44">
@@ -2046,34 +2046,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.036590576171875</v>
+        <v>0.0215301513671875</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.034149169921875</v>
+        <v>0.01611328125</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.030975341796875</v>
+        <v>0.02325439453125</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0309295654296875</v>
+        <v>0.0262603759765625</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03656005859375</v>
+        <v>0.018463134765625</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0293426513671875</v>
+        <v>0.024017333984375</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.032073974609375</v>
+        <v>0.0193939208984375</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.03656005859375</v>
+        <v>0.018463134765625</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.047698974609375</v>
+        <v>0.0177459716796875</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.037353515625</v>
+        <v>0.02252197265625</v>
       </c>
     </row>
     <row r="45">
@@ -2083,34 +2083,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0179290771484375</v>
+        <v>-0.12115478515625</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0238494873046875</v>
+        <v>-0.12030029296875</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.019775390625</v>
+        <v>-0.1209716796875</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.02508544921875</v>
+        <v>-0.1138916015625</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.016876220703125</v>
+        <v>-0.12103271484375</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01465606689453125</v>
+        <v>-0.10601806640625</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.021881103515625</v>
+        <v>-0.1209716796875</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.016876220703125</v>
+        <v>-0.12103271484375</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.01702880859375</v>
+        <v>-0.1219482421875</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0198516845703125</v>
+        <v>-0.1077880859375</v>
       </c>
     </row>
     <row r="46">
@@ -2120,34 +2120,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.08514404296875</v>
+        <v>-0.13134765625</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.07843017578125</v>
+        <v>-0.1329345703125</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.07196044921875</v>
+        <v>-0.1358642578125</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.072509765625</v>
+        <v>-0.1309814453125</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.1357421875</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.07818603515625</v>
+        <v>-0.1297607421875</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.06219482421875</v>
+        <v>-0.1339111328125</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.07696533203125</v>
+        <v>-0.1357421875</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.08319091796875</v>
+        <v>-0.1307373046875</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.07415771484375</v>
+        <v>-0.1334228515625</v>
       </c>
     </row>
     <row r="47">
@@ -2157,34 +2157,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.03619384765625</v>
+        <v>0.062347412109375</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.04217529296875</v>
+        <v>0.05303955078125</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0443115234375</v>
+        <v>0.048004150390625</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.04461669921875</v>
+        <v>0.05816650390625</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0430908203125</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04205322265625</v>
+        <v>0.049102783203125</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.0439453125</v>
+        <v>0.0491943359375</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0430908203125</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.03692626953125</v>
+        <v>0.06170654296875</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0460205078125</v>
+        <v>0.05029296875</v>
       </c>
     </row>
     <row r="48">
@@ -2194,34 +2194,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.001310348510742188</v>
+        <v>0.0916748046875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00673675537109375</v>
+        <v>0.09686279296875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008026123046875</v>
+        <v>0.1024169921875</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.005950927734375</v>
+        <v>0.1002197265625</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00670623779296875</v>
+        <v>0.09991455078125</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.001244544982910156</v>
+        <v>0.09600830078125</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00677490234375</v>
+        <v>0.1024169921875</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00670623779296875</v>
+        <v>0.09991455078125</v>
       </c>
       <c r="J48" t="n">
-        <v>0.001929283142089844</v>
+        <v>0.09259033203125</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003963470458984375</v>
+        <v>0.10992431640625</v>
       </c>
     </row>
     <row r="49">
@@ -2231,34 +2231,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.00783538818359375</v>
+        <v>-0.10821533203125</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01369476318359375</v>
+        <v>-0.1107177734375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01531219482421875</v>
+        <v>-0.11053466796875</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01224517822265625</v>
+        <v>-0.10064697265625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0152740478515625</v>
+        <v>-0.1126708984375</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0047607421875</v>
+        <v>-0.1092529296875</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0212860107421875</v>
+        <v>-0.1080322265625</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0152740478515625</v>
+        <v>-0.1126708984375</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0129241943359375</v>
+        <v>-0.10833740234375</v>
       </c>
       <c r="K49" t="n">
-        <v>0.015777587890625</v>
+        <v>-0.11053466796875</v>
       </c>
     </row>
     <row r="50">
@@ -2268,34 +2268,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.08709716796875</v>
+        <v>-0.0811767578125</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.08099365234375</v>
+        <v>-0.0819091796875</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.076904296875</v>
+        <v>-0.08367919921875</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.079345703125</v>
+        <v>-0.07452392578125</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.08074951171875</v>
+        <v>-0.08111572265625</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0809326171875</v>
+        <v>-0.0843505859375</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.07733154296875</v>
+        <v>-0.08282470703125</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.08074951171875</v>
+        <v>-0.08111572265625</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.08935546875</v>
+        <v>-0.0831298828125</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0821533203125</v>
+        <v>-0.0833740234375</v>
       </c>
     </row>
     <row r="51">
@@ -2305,34 +2305,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.08447265625</v>
+        <v>-0.0977783203125</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.08514404296875</v>
+        <v>-0.109130859375</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.08905029296875</v>
+        <v>-0.108154296875</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09033203125</v>
+        <v>-0.09814453125</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0882568359375</v>
+        <v>-0.113525390625</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.07733154296875</v>
+        <v>-0.1019287109375</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0919189453125</v>
+        <v>-0.10693359375</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.0882568359375</v>
+        <v>-0.113525390625</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.08514404296875</v>
+        <v>-0.0963134765625</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0872802734375</v>
+        <v>-0.09552001953125</v>
       </c>
     </row>
     <row r="52">
@@ -2342,34 +2342,34 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.059417724609375</v>
+        <v>-0.099609375</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0555419921875</v>
+        <v>-0.09686279296875</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.03826904296875</v>
+        <v>-0.09478759765625</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.052581787109375</v>
+        <v>-0.10650634765625</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.044158935546875</v>
+        <v>-0.09417724609375</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.046478271484375</v>
+        <v>-0.1005859375</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.038665771484375</v>
+        <v>-0.0972900390625</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.044158935546875</v>
+        <v>-0.09417724609375</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.057952880859375</v>
+        <v>-0.09869384765625</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.036712646484375</v>
+        <v>-0.10125732421875</v>
       </c>
     </row>
     <row r="53">
@@ -2379,34 +2379,34 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.058197021484375</v>
+        <v>0.03973388671875</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0628662109375</v>
+        <v>0.0413818359375</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.09796142578125</v>
+        <v>0.043243408203125</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.058807373046875</v>
+        <v>0.043426513671875</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.09613037109375</v>
+        <v>0.039459228515625</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07708740234375</v>
+        <v>0.037384033203125</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.09295654296875</v>
+        <v>0.043792724609375</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.09613037109375</v>
+        <v>0.039459228515625</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.058074951171875</v>
+        <v>0.042694091796875</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.09234619140625</v>
+        <v>0.042266845703125</v>
       </c>
     </row>
     <row r="54">
@@ -2416,34 +2416,34 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0151214599609375</v>
+        <v>-0.09912109375</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0192413330078125</v>
+        <v>-0.10089111328125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00901031494140625</v>
+        <v>-0.09747314453125</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01593017578125</v>
+        <v>-0.09405517578125</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00811767578125</v>
+        <v>-0.0989990234375</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003763198852539062</v>
+        <v>-0.09613037109375</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0094757080078125</v>
+        <v>-0.10076904296875</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00811767578125</v>
+        <v>-0.0989990234375</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0203704833984375</v>
+        <v>-0.10174560546875</v>
       </c>
       <c r="K54" t="n">
-        <v>0.004245758056640625</v>
+        <v>-0.09466552734375</v>
       </c>
     </row>
     <row r="55">
@@ -2453,34 +2453,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.0122833251953125</v>
+        <v>0.002414703369140625</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.032135009765625</v>
+        <v>0.01236724853515625</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.031463623046875</v>
+        <v>0.01226043701171875</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02569580078125</v>
+        <v>-0.004848480224609375</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0276031494140625</v>
+        <v>0.01044464111328125</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03271484375</v>
+        <v>0.003404617309570312</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.03466796875</v>
+        <v>0.01023101806640625</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0276031494140625</v>
+        <v>0.01044464111328125</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.01387786865234375</v>
+        <v>0.004322052001953125</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.034210205078125</v>
+        <v>-0.001622200012207031</v>
       </c>
     </row>
     <row r="56">
@@ -2490,34 +2490,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.047454833984375</v>
+        <v>-0.2305908203125</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.04327392578125</v>
+        <v>-0.2376708984375</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.046112060546875</v>
+        <v>-0.2332763671875</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.048248291015625</v>
+        <v>-0.2381591796875</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.050384521484375</v>
+        <v>-0.2391357421875</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0501708984375</v>
+        <v>-0.231689453125</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.044403076171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.050384521484375</v>
+        <v>-0.2391357421875</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.046142578125</v>
+        <v>-0.233154296875</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.054412841796875</v>
+        <v>-0.2415771484375</v>
       </c>
     </row>
     <row r="57">
@@ -2527,34 +2527,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.129638671875</v>
+        <v>-0.1943359375</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1317138671875</v>
+        <v>-0.1697998046875</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1307373046875</v>
+        <v>-0.175537109375</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1239013671875</v>
+        <v>-0.1795654296875</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.132568359375</v>
+        <v>-0.171875</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1343994140625</v>
+        <v>-0.170166015625</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.1279296875</v>
+        <v>-0.171875</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.132568359375</v>
+        <v>-0.171875</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.127685546875</v>
+        <v>-0.187744140625</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.139404296875</v>
+        <v>-0.1651611328125</v>
       </c>
     </row>
     <row r="58">
@@ -2564,34 +2564,34 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.006435394287109375</v>
+        <v>-0.032867431640625</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.00495147705078125</v>
+        <v>-0.0084075927734375</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0054931640625</v>
+        <v>-0.0053253173828125</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.00690460205078125</v>
+        <v>-0.0243682861328125</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01253509521484375</v>
+        <v>-0.00786590576171875</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.017303466796875</v>
+        <v>-0.01806640625</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.004791259765625</v>
+        <v>-0.003002166748046875</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.01253509521484375</v>
+        <v>-0.00786590576171875</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.0119781494140625</v>
+        <v>-0.03399658203125</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0161285400390625</v>
+        <v>-0.02423095703125</v>
       </c>
     </row>
     <row r="59">
@@ -2601,34 +2601,34 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.04669189453125</v>
+        <v>0.10003662109375</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.043304443359375</v>
+        <v>0.0908203125</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.040985107421875</v>
+        <v>0.091552734375</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0435791015625</v>
+        <v>0.0897216796875</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.044158935546875</v>
+        <v>0.09368896484375</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.04827880859375</v>
+        <v>0.09552001953125</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.03826904296875</v>
+        <v>0.09234619140625</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.044158935546875</v>
+        <v>0.09368896484375</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.050506591796875</v>
+        <v>0.09942626953125</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.036376953125</v>
+        <v>0.09613037109375</v>
       </c>
     </row>
     <row r="60">
@@ -2638,34 +2638,34 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.139892578125</v>
+        <v>-0.0023956298828125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.127685546875</v>
+        <v>0.01593017578125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1279296875</v>
+        <v>0.0166015625</v>
       </c>
       <c r="E60" t="n">
-        <v>0.13623046875</v>
+        <v>0.0157928466796875</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1195068359375</v>
+        <v>0.0153045654296875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.12493896484375</v>
+        <v>0.021636962890625</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1282958984375</v>
+        <v>0.018310546875</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1195068359375</v>
+        <v>0.0153045654296875</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1395263671875</v>
+        <v>-0.003110885620117188</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1094970703125</v>
+        <v>0.0200653076171875</v>
       </c>
     </row>
     <row r="61">
@@ -2675,34 +2675,34 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.0009765625</v>
+        <v>0.06622314453125</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.002210617065429688</v>
+        <v>0.09136962890625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0006289482116699219</v>
+        <v>0.0902099609375</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.00461578369140625</v>
+        <v>0.07391357421875</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0050048828125</v>
+        <v>0.08868408203125</v>
       </c>
       <c r="G61" t="n">
-        <v>0.002628326416015625</v>
+        <v>0.0704345703125</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.002573013305664062</v>
+        <v>0.0875244140625</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0050048828125</v>
+        <v>0.08868408203125</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.001478195190429688</v>
+        <v>0.06671142578125</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.003925323486328125</v>
+        <v>0.07598876953125</v>
       </c>
     </row>
     <row r="62">
@@ -2712,34 +2712,34 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.1697998046875</v>
+        <v>-0.034912109375</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1629638671875</v>
+        <v>-0.040130615234375</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1463623046875</v>
+        <v>-0.038116455078125</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1748046875</v>
+        <v>-0.032135009765625</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1513671875</v>
+        <v>-0.033203125</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1627197265625</v>
+        <v>-0.0287628173828125</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.144287109375</v>
+        <v>-0.040069580078125</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1513671875</v>
+        <v>-0.033203125</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.1678466796875</v>
+        <v>-0.03472900390625</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.151123046875</v>
+        <v>-0.023681640625</v>
       </c>
     </row>
     <row r="63">
@@ -2749,34 +2749,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.0965576171875</v>
+        <v>-0.002016067504882812</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0911865234375</v>
+        <v>-0.015777587890625</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.078125</v>
+        <v>-0.0192718505859375</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.08966064453125</v>
+        <v>-0.01232147216796875</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0826416015625</v>
+        <v>-0.01241302490234375</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.08294677734375</v>
+        <v>-0.00537872314453125</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.07403564453125</v>
+        <v>-0.01947021484375</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.0826416015625</v>
+        <v>-0.01241302490234375</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.09222412109375</v>
+        <v>0.001983642578125</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.078857421875</v>
+        <v>-0.0009570121765136719</v>
       </c>
     </row>
     <row r="64">
@@ -2786,34 +2786,34 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001115798950195312</v>
+        <v>0.00908660888671875</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001070976257324219</v>
+        <v>0.022247314453125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.027191162109375</v>
+        <v>0.022125244140625</v>
       </c>
       <c r="E64" t="n">
-        <v>0.004680633544921875</v>
+        <v>0.0240631103515625</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0185394287109375</v>
+        <v>0.0180816650390625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0158233642578125</v>
+        <v>0.023681640625</v>
       </c>
       <c r="H64" t="n">
-        <v>0.030914306640625</v>
+        <v>0.0219573974609375</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0185394287109375</v>
+        <v>0.0180816650390625</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.001829147338867188</v>
+        <v>0.00861358642578125</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0184783935546875</v>
+        <v>0.0223236083984375</v>
       </c>
     </row>
     <row r="65">
@@ -2823,34 +2823,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.00927734375</v>
+        <v>0.08380126953125</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.01084136962890625</v>
+        <v>0.09222412109375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00684356689453125</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.00339508056640625</v>
+        <v>0.08343505859375</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002750396728515625</v>
+        <v>0.086181640625</v>
       </c>
       <c r="G65" t="n">
-        <v>0.003499984741210938</v>
+        <v>0.08056640625</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0055694580078125</v>
+        <v>0.08636474609375</v>
       </c>
       <c r="I65" t="n">
-        <v>0.002750396728515625</v>
+        <v>0.086181640625</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002101898193359375</v>
+        <v>0.0855712890625</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.001256942749023438</v>
+        <v>0.078857421875</v>
       </c>
     </row>
     <row r="66">
@@ -2860,34 +2860,34 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1358642578125</v>
+        <v>-0.0260467529296875</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.130126953125</v>
+        <v>-0.035003662109375</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1473388671875</v>
+        <v>-0.04241943359375</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1295166015625</v>
+        <v>-0.0270538330078125</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.1461181640625</v>
+        <v>-0.038360595703125</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.151123046875</v>
+        <v>-0.0311126708984375</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.1494140625</v>
+        <v>-0.037109375</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1461181640625</v>
+        <v>-0.038360595703125</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.1361083984375</v>
+        <v>-0.022796630859375</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.1405029296875</v>
+        <v>-0.032989501953125</v>
       </c>
     </row>
     <row r="67">
@@ -2897,34 +2897,34 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.01491546630859375</v>
+        <v>-0.0916748046875</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0261688232421875</v>
+        <v>-0.10321044921875</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01519012451171875</v>
+        <v>-0.10748291015625</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.022674560546875</v>
+        <v>-0.0848388671875</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0264892578125</v>
+        <v>-0.1075439453125</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02154541015625</v>
+        <v>-0.09234619140625</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.016876220703125</v>
+        <v>-0.107666015625</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.0264892578125</v>
+        <v>-0.1075439453125</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0206146240234375</v>
+        <v>-0.09307861328125</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.02288818359375</v>
+        <v>-0.08551025390625</v>
       </c>
     </row>
     <row r="68">
@@ -2934,34 +2934,34 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.050018310546875</v>
+        <v>-0.1702880859375</v>
       </c>
       <c r="C68" t="n">
-        <v>0.048736572265625</v>
+        <v>-0.1658935546875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.057861328125</v>
+        <v>-0.165771484375</v>
       </c>
       <c r="E68" t="n">
-        <v>0.041595458984375</v>
+        <v>-0.1739501953125</v>
       </c>
       <c r="F68" t="n">
-        <v>0.069580078125</v>
+        <v>-0.1663818359375</v>
       </c>
       <c r="G68" t="n">
-        <v>0.059539794921875</v>
+        <v>-0.1634521484375</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0506591796875</v>
+        <v>-0.167724609375</v>
       </c>
       <c r="I68" t="n">
-        <v>0.069580078125</v>
+        <v>-0.1663818359375</v>
       </c>
       <c r="J68" t="n">
-        <v>0.050537109375</v>
+        <v>-0.171142578125</v>
       </c>
       <c r="K68" t="n">
-        <v>0.06982421875</v>
+        <v>-0.17041015625</v>
       </c>
     </row>
     <row r="69">
@@ -2971,34 +2971,34 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.0762939453125</v>
+        <v>0.049163818359375</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.06793212890625</v>
+        <v>0.059234619140625</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0518798828125</v>
+        <v>0.059356689453125</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.07037353515625</v>
+        <v>0.0506591796875</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.058807373046875</v>
+        <v>0.062042236328125</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06256103515625</v>
+        <v>0.054534912109375</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.04473876953125</v>
+        <v>0.06060791015625</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.058807373046875</v>
+        <v>0.062042236328125</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.07208251953125</v>
+        <v>0.05084228515625</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.060546875</v>
+        <v>0.05291748046875</v>
       </c>
     </row>
     <row r="70">
@@ -3008,34 +3008,34 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.055328369140625</v>
+        <v>-0.1348876953125</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.058807373046875</v>
+        <v>-0.140380859375</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0797119140625</v>
+        <v>-0.1466064453125</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.060150146484375</v>
+        <v>-0.1324462890625</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0802001953125</v>
+        <v>-0.14501953125</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0751953125</v>
+        <v>-0.133056640625</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.06854248046875</v>
+        <v>-0.1419677734375</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.0802001953125</v>
+        <v>-0.14501953125</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.04705810546875</v>
+        <v>-0.13037109375</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.082763671875</v>
+        <v>-0.12890625</v>
       </c>
     </row>
     <row r="71">
@@ -3045,34 +3045,34 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.003026962280273438</v>
+        <v>0.08648681640625</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.0084381103515625</v>
+        <v>0.0833740234375</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.018157958984375</v>
+        <v>0.0811767578125</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.013275146484375</v>
+        <v>0.0809326171875</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.00958251953125</v>
+        <v>0.08197021484375</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.00799560546875</v>
+        <v>0.0775146484375</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.01317596435546875</v>
+        <v>0.08148193359375</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.00958251953125</v>
+        <v>0.08197021484375</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.001217842102050781</v>
+        <v>0.085693359375</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.0229034423828125</v>
+        <v>0.0777587890625</v>
       </c>
     </row>
     <row r="72">
@@ -3082,34 +3082,34 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.058197021484375</v>
+        <v>-0.1787109375</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.05316162109375</v>
+        <v>-0.163330078125</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.063232421875</v>
+        <v>-0.1651611328125</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.056671142578125</v>
+        <v>-0.170654296875</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.048370361328125</v>
+        <v>-0.164306640625</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.046630859375</v>
+        <v>-0.1673583984375</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.0654296875</v>
+        <v>-0.1605224609375</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.048370361328125</v>
+        <v>-0.164306640625</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.054107666015625</v>
+        <v>-0.177490234375</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.04632568359375</v>
+        <v>-0.1671142578125</v>
       </c>
     </row>
     <row r="73">
@@ -3119,34 +3119,34 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.11053466796875</v>
+        <v>0.1788330078125</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.10870361328125</v>
+        <v>0.1947021484375</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1077880859375</v>
+        <v>0.1912841796875</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1151123046875</v>
+        <v>0.1871337890625</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.10736083984375</v>
+        <v>0.1929931640625</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.10260009765625</v>
+        <v>0.1829833984375</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.100341796875</v>
+        <v>0.1942138671875</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.10736083984375</v>
+        <v>0.1929931640625</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.10369873046875</v>
+        <v>0.177978515625</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.1051025390625</v>
+        <v>0.19873046875</v>
       </c>
     </row>
     <row r="74">
@@ -3156,34 +3156,34 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.0284423828125</v>
+        <v>-0.0948486328125</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.035247802734375</v>
+        <v>-0.0972900390625</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.0343017578125</v>
+        <v>-0.09197998046875</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.033538818359375</v>
+        <v>-0.086669921875</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.032958984375</v>
+        <v>-0.09521484375</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0245361328125</v>
+        <v>-0.08001708984375</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.038055419921875</v>
+        <v>-0.09295654296875</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.032958984375</v>
+        <v>-0.09521484375</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.0260162353515625</v>
+        <v>-0.096435546875</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.031890869140625</v>
+        <v>-0.0799560546875</v>
       </c>
     </row>
     <row r="75">
@@ -3193,34 +3193,34 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.03802490234375</v>
+        <v>-0.2734375</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.036956787109375</v>
+        <v>-0.2490234375</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.036041259765625</v>
+        <v>-0.25</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0303497314453125</v>
+        <v>-0.25244140625</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.04425048828125</v>
+        <v>-0.2467041015625</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0538330078125</v>
+        <v>-0.2398681640625</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.037322998046875</v>
+        <v>-0.248779296875</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.04425048828125</v>
+        <v>-0.2467041015625</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.04437255859375</v>
+        <v>-0.2724609375</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.046630859375</v>
+        <v>-0.2431640625</v>
       </c>
     </row>
     <row r="76">
@@ -3230,34 +3230,34 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.088134765625</v>
+        <v>0.16845703125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07537841796875</v>
+        <v>0.1724853515625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06964111328125</v>
+        <v>0.17236328125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08624267578125</v>
+        <v>0.162841796875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.074951171875</v>
+        <v>0.1700439453125</v>
       </c>
       <c r="G76" t="n">
-        <v>0.07830810546875</v>
+        <v>0.160400390625</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0694580078125</v>
+        <v>0.1761474609375</v>
       </c>
       <c r="I76" t="n">
-        <v>0.074951171875</v>
+        <v>0.1700439453125</v>
       </c>
       <c r="J76" t="n">
-        <v>0.08837890625</v>
+        <v>0.1708984375</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0738525390625</v>
+        <v>0.1580810546875</v>
       </c>
     </row>
     <row r="77">
@@ -3267,34 +3267,34 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.12158203125</v>
+        <v>-0.00991058349609375</v>
       </c>
       <c r="C77" t="n">
-        <v>0.12115478515625</v>
+        <v>-0.00490570068359375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.12164306640625</v>
+        <v>-0.00380706787109375</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1214599609375</v>
+        <v>-0.01050567626953125</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12109375</v>
+        <v>0.001361846923828125</v>
       </c>
       <c r="G77" t="n">
-        <v>0.11981201171875</v>
+        <v>0.0076904296875</v>
       </c>
       <c r="H77" t="n">
-        <v>0.117919921875</v>
+        <v>-0.006099700927734375</v>
       </c>
       <c r="I77" t="n">
-        <v>0.12109375</v>
+        <v>0.001361846923828125</v>
       </c>
       <c r="J77" t="n">
-        <v>0.123291015625</v>
+        <v>-0.0119171142578125</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1270751953125</v>
+        <v>0.0021209716796875</v>
       </c>
     </row>
     <row r="78">
@@ -3304,34 +3304,34 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01515960693359375</v>
+        <v>0.10589599609375</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00742340087890625</v>
+        <v>0.09716796875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0200042724609375</v>
+        <v>0.09906005859375</v>
       </c>
       <c r="E78" t="n">
-        <v>0.013458251953125</v>
+        <v>0.0970458984375</v>
       </c>
       <c r="F78" t="n">
-        <v>0.021728515625</v>
+        <v>0.0987548828125</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0213623046875</v>
+        <v>0.0841064453125</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01812744140625</v>
+        <v>0.10205078125</v>
       </c>
       <c r="I78" t="n">
-        <v>0.021728515625</v>
+        <v>0.0987548828125</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01065826416015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0206146240234375</v>
+        <v>0.0860595703125</v>
       </c>
     </row>
     <row r="79">
@@ -3341,34 +3341,34 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.049896240234375</v>
+        <v>0.02490234375</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.04718017578125</v>
+        <v>0.00913238525390625</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.041595458984375</v>
+        <v>0.01119232177734375</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.04180908203125</v>
+        <v>0.020751953125</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.042999267578125</v>
+        <v>0.0120849609375</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.042266845703125</v>
+        <v>0.0156402587890625</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.033905029296875</v>
+        <v>0.01235198974609375</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.042999267578125</v>
+        <v>0.0120849609375</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.048309326171875</v>
+        <v>0.024078369140625</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.049896240234375</v>
+        <v>0.016021728515625</v>
       </c>
     </row>
     <row r="80">
@@ -3378,34 +3378,34 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.024810791015625</v>
+        <v>0.052734375</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01763916015625</v>
+        <v>0.055755615234375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.032623291015625</v>
+        <v>0.056121826171875</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02764892578125</v>
+        <v>0.05682373046875</v>
       </c>
       <c r="F80" t="n">
-        <v>0.024810791015625</v>
+        <v>0.057037353515625</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0244903564453125</v>
+        <v>0.056732177734375</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0301361083984375</v>
+        <v>0.0538330078125</v>
       </c>
       <c r="I80" t="n">
-        <v>0.024810791015625</v>
+        <v>0.057037353515625</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01995849609375</v>
+        <v>0.051116943359375</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0216217041015625</v>
+        <v>0.056365966796875</v>
       </c>
     </row>
     <row r="81">
@@ -3415,34 +3415,34 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.033233642578125</v>
+        <v>0.15380859375</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.03558349609375</v>
+        <v>0.185546875</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.0160980224609375</v>
+        <v>0.189208984375</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.038818359375</v>
+        <v>0.159423828125</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.0256805419921875</v>
+        <v>0.190185546875</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.023223876953125</v>
+        <v>0.177001953125</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.01425933837890625</v>
+        <v>0.190185546875</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.0256805419921875</v>
+        <v>0.190185546875</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.031707763671875</v>
+        <v>0.156005859375</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.02978515625</v>
+        <v>0.1700439453125</v>
       </c>
     </row>
     <row r="82">
@@ -3452,34 +3452,34 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0762939453125</v>
+        <v>-0.335205078125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07623291015625</v>
+        <v>-0.33740234375</v>
       </c>
       <c r="D82" t="n">
-        <v>0.063232421875</v>
+        <v>-0.331787109375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.072021484375</v>
+        <v>-0.323974609375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.053955078125</v>
+        <v>-0.333740234375</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06317138671875</v>
+        <v>-0.31298828125</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0570068359375</v>
+        <v>-0.329833984375</v>
       </c>
       <c r="I82" t="n">
-        <v>0.053955078125</v>
+        <v>-0.333740234375</v>
       </c>
       <c r="J82" t="n">
-        <v>0.071044921875</v>
+        <v>-0.337646484375</v>
       </c>
       <c r="K82" t="n">
-        <v>0.04693603515625</v>
+        <v>-0.31494140625</v>
       </c>
     </row>
     <row r="83">
@@ -3489,34 +3489,34 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0207977294921875</v>
+        <v>-0.2034912109375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01519775390625</v>
+        <v>-0.2005615234375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.014556884765625</v>
+        <v>-0.2003173828125</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01329803466796875</v>
+        <v>-0.20458984375</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0198974609375</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.022430419921875</v>
+        <v>-0.1861572265625</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0111083984375</v>
+        <v>-0.19384765625</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0198974609375</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0197601318359375</v>
+        <v>-0.2025146484375</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0194854736328125</v>
+        <v>-0.189453125</v>
       </c>
     </row>
     <row r="84">
@@ -3526,34 +3526,34 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.12432861328125</v>
+        <v>-0.2325439453125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1280517578125</v>
+        <v>-0.2413330078125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09259033203125</v>
+        <v>-0.24072265625</v>
       </c>
       <c r="E84" t="n">
-        <v>0.119384765625</v>
+        <v>-0.228515625</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10614013671875</v>
+        <v>-0.240234375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.10626220703125</v>
+        <v>-0.23095703125</v>
       </c>
       <c r="H84" t="n">
-        <v>0.08843994140625</v>
+        <v>-0.2412109375</v>
       </c>
       <c r="I84" t="n">
-        <v>0.10614013671875</v>
+        <v>-0.240234375</v>
       </c>
       <c r="J84" t="n">
-        <v>0.126220703125</v>
+        <v>-0.2332763671875</v>
       </c>
       <c r="K84" t="n">
-        <v>0.109619140625</v>
+        <v>-0.2303466796875</v>
       </c>
     </row>
     <row r="85">
@@ -3563,34 +3563,34 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.0347900390625</v>
+        <v>-0.0968017578125</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.03753662109375</v>
+        <v>-0.08917236328125</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.03631591796875</v>
+        <v>-0.08709716796875</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.034820556640625</v>
+        <v>-0.07958984375</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.037994384765625</v>
+        <v>-0.08624267578125</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.033599853515625</v>
+        <v>-0.0810546875</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.034210205078125</v>
+        <v>-0.08551025390625</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.037994384765625</v>
+        <v>-0.08624267578125</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.033294677734375</v>
+        <v>-0.093505859375</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.041351318359375</v>
+        <v>-0.0771484375</v>
       </c>
     </row>
     <row r="86">
@@ -3600,34 +3600,34 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.05535888671875</v>
+        <v>0.055389404296875</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.050079345703125</v>
+        <v>0.043212890625</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.045440673828125</v>
+        <v>0.039642333984375</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.045623779296875</v>
+        <v>0.04388427734375</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.05322265625</v>
+        <v>0.036651611328125</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05389404296875</v>
+        <v>0.036956787109375</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.042694091796875</v>
+        <v>0.044677734375</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.05322265625</v>
+        <v>0.036651611328125</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.05633544921875</v>
+        <v>0.05572509765625</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.050048828125</v>
+        <v>0.0271148681640625</v>
       </c>
     </row>
     <row r="87">
@@ -3637,34 +3637,34 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.0570068359375</v>
+        <v>0.0361328125</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.0535888671875</v>
+        <v>0.03240966796875</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.07452392578125</v>
+        <v>0.033721923828125</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.04974365234375</v>
+        <v>0.03253173828125</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.07159423828125</v>
+        <v>0.031829833984375</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0732421875</v>
+        <v>0.0258941650390625</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0728759765625</v>
+        <v>0.034393310546875</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.07159423828125</v>
+        <v>0.031829833984375</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.062042236328125</v>
+        <v>0.0374755859375</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.0736083984375</v>
+        <v>0.019622802734375</v>
       </c>
     </row>
     <row r="88">
@@ -3674,34 +3674,34 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.0572509765625</v>
+        <v>-0.002130508422851562</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.051605224609375</v>
+        <v>-0.004154205322265625</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.041229248046875</v>
+        <v>-0.00490570068359375</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.053497314453125</v>
+        <v>-0.0060272216796875</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.045745849609375</v>
+        <v>-0.006435394287109375</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0465087890625</v>
+        <v>-0.00624847412109375</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.032806396484375</v>
+        <v>-0.004093170166015625</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.045745849609375</v>
+        <v>-0.006435394287109375</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.0562744140625</v>
+        <v>0.0005998611450195312</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.0489501953125</v>
+        <v>-0.005512237548828125</v>
       </c>
     </row>
     <row r="89">
@@ -3711,34 +3711,34 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.09368896484375</v>
+        <v>-0.013671875</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.0980224609375</v>
+        <v>-0.013885498046875</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.08880615234375</v>
+        <v>-0.01288604736328125</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.095703125</v>
+        <v>-0.01515960693359375</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.08990478515625</v>
+        <v>-0.011962890625</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09356689453125</v>
+        <v>-0.01024627685546875</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.09002685546875</v>
+        <v>-0.0149383544921875</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.08990478515625</v>
+        <v>-0.011962890625</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.09619140625</v>
+        <v>-0.013580322265625</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.09637451171875</v>
+        <v>-0.00798797607421875</v>
       </c>
     </row>
     <row r="90">
@@ -3748,34 +3748,34 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.04034423828125</v>
+        <v>0.06854248046875</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.039794921875</v>
+        <v>0.10162353515625</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.03961181640625</v>
+        <v>0.10784912109375</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.04058837890625</v>
+        <v>0.07952880859375</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.043060302734375</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.043426513671875</v>
+        <v>0.08514404296875</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.040191650390625</v>
+        <v>0.10589599609375</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.043060302734375</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.04107666015625</v>
+        <v>0.06573486328125</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.038360595703125</v>
+        <v>0.08544921875</v>
       </c>
     </row>
     <row r="91">
@@ -3785,34 +3785,34 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.00989532470703125</v>
+        <v>0.10906982421875</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.005878448486328125</v>
+        <v>0.082275390625</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0255889892578125</v>
+        <v>0.0855712890625</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.014495849609375</v>
+        <v>0.09478759765625</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0089569091796875</v>
+        <v>0.087646484375</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0110626220703125</v>
+        <v>0.0885009765625</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.028289794921875</v>
+        <v>0.0826416015625</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.0089569091796875</v>
+        <v>0.087646484375</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.005870819091796875</v>
+        <v>0.11004638671875</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.002582550048828125</v>
+        <v>0.09478759765625</v>
       </c>
     </row>
     <row r="92">
@@ -3822,34 +3822,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0210113525390625</v>
+        <v>0.1356201171875</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0226898193359375</v>
+        <v>0.1348876953125</v>
       </c>
       <c r="D92" t="n">
-        <v>0.019989013671875</v>
+        <v>0.13818359375</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0260772705078125</v>
+        <v>0.1336669921875</v>
       </c>
       <c r="F92" t="n">
-        <v>0.009429931640625</v>
+        <v>0.14111328125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0176544189453125</v>
+        <v>0.1328125</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0263519287109375</v>
+        <v>0.1405029296875</v>
       </c>
       <c r="I92" t="n">
-        <v>0.009429931640625</v>
+        <v>0.14111328125</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0306549072265625</v>
+        <v>0.13671875</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.0006957054138183594</v>
+        <v>0.131591796875</v>
       </c>
     </row>
     <row r="93">
@@ -3859,34 +3859,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.031890869140625</v>
+        <v>0.060333251953125</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.0253448486328125</v>
+        <v>0.0648193359375</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.016571044921875</v>
+        <v>0.0689697265625</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.027587890625</v>
+        <v>0.055816650390625</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01558685302734375</v>
+        <v>0.07110595703125</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0251312255859375</v>
+        <v>0.06170654296875</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.01375579833984375</v>
+        <v>0.0697021484375</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.01558685302734375</v>
+        <v>0.07110595703125</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.032623291015625</v>
+        <v>0.060455322265625</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.0189361572265625</v>
+        <v>0.054443359375</v>
       </c>
     </row>
     <row r="94">
@@ -3896,34 +3896,34 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.09368896484375</v>
+        <v>-5.91278076171875e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.09429931640625</v>
+        <v>-0.002410888671875</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1134033203125</v>
+        <v>-0.009735107421875</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.09088134765625</v>
+        <v>0.00786590576171875</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.11956787109375</v>
+        <v>-0.007720947265625</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.11138916015625</v>
+        <v>-0.0136566162109375</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.108154296875</v>
+        <v>-0.0057525634765625</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.11956787109375</v>
+        <v>-0.007720947265625</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.09283447265625</v>
+        <v>-0.0005545616149902344</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.116943359375</v>
+        <v>-0.0083160400390625</v>
       </c>
     </row>
     <row r="95">
@@ -3933,34 +3933,34 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.03985595703125</v>
+        <v>-0.107421875</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.0338134765625</v>
+        <v>-0.09820556640625</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0374755859375</v>
+        <v>-0.10186767578125</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.032012939453125</v>
+        <v>-0.10205078125</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0290679931640625</v>
+        <v>-0.10137939453125</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.024749755859375</v>
+        <v>-0.09228515625</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.03924560546875</v>
+        <v>-0.0987548828125</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.0290679931640625</v>
+        <v>-0.10137939453125</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.033294677734375</v>
+        <v>-0.10772705078125</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.0244140625</v>
+        <v>-0.08856201171875</v>
       </c>
     </row>
     <row r="96">
@@ -3970,34 +3970,34 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0271759033203125</v>
+        <v>-0.079345703125</v>
       </c>
       <c r="C96" t="n">
-        <v>0.022369384765625</v>
+        <v>-0.08502197265625</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03192138671875</v>
+        <v>-0.07977294921875</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02435302734375</v>
+        <v>-0.08270263671875</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03411865234375</v>
+        <v>-0.0814208984375</v>
       </c>
       <c r="G96" t="n">
-        <v>0.032257080078125</v>
+        <v>-0.07147216796875</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0347900390625</v>
+        <v>-0.0797119140625</v>
       </c>
       <c r="I96" t="n">
-        <v>0.03411865234375</v>
+        <v>-0.0814208984375</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0279083251953125</v>
+        <v>-0.07977294921875</v>
       </c>
       <c r="K96" t="n">
-        <v>0.026702880859375</v>
+        <v>-0.0638427734375</v>
       </c>
     </row>
     <row r="97">
@@ -4007,34 +4007,34 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.0849609375</v>
+        <v>0.006168365478515625</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.07440185546875</v>
+        <v>0.0002999305725097656</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.06884765625</v>
+        <v>0.003337860107421875</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.08026123046875</v>
+        <v>0.006992340087890625</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.06671142578125</v>
+        <v>0.00749969482421875</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.076171875</v>
+        <v>0.010406494140625</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.07171630859375</v>
+        <v>0.003808975219726562</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.06671142578125</v>
+        <v>0.00749969482421875</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.07958984375</v>
+        <v>0.00643157958984375</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.06597900390625</v>
+        <v>0.0147705078125</v>
       </c>
     </row>
     <row r="98">
@@ -4044,34 +4044,34 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.0518798828125</v>
+        <v>0.041412353515625</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.046966552734375</v>
+        <v>0.06622314453125</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.07275390625</v>
+        <v>0.0777587890625</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.0499267578125</v>
+        <v>0.059417724609375</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06121826171875</v>
+        <v>0.07659912109375</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.054901123046875</v>
+        <v>0.0633544921875</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.071044921875</v>
+        <v>0.07452392578125</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.06121826171875</v>
+        <v>0.07659912109375</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.04693603515625</v>
+        <v>0.03955078125</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.06744384765625</v>
+        <v>0.068359375</v>
       </c>
     </row>
     <row r="99">
@@ -4081,34 +4081,34 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.023895263671875</v>
+        <v>-0.130859375</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.008148193359375</v>
+        <v>-0.1292724609375</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.0007801055908203125</v>
+        <v>-0.122314453125</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.0267333984375</v>
+        <v>-0.1298828125</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006557464599609375</v>
+        <v>-0.12481689453125</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0008997917175292969</v>
+        <v>-0.123779296875</v>
       </c>
       <c r="H99" t="n">
-        <v>0.001442909240722656</v>
+        <v>-0.122314453125</v>
       </c>
       <c r="I99" t="n">
-        <v>0.006557464599609375</v>
+        <v>-0.12481689453125</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.017913818359375</v>
+        <v>-0.1304931640625</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.00970458984375</v>
+        <v>-0.1326904296875</v>
       </c>
     </row>
     <row r="100">
@@ -4118,34 +4118,34 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0308837890625</v>
+        <v>0.034576416015625</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0321044921875</v>
+        <v>0.028961181640625</v>
       </c>
       <c r="D100" t="n">
-        <v>0.025726318359375</v>
+        <v>0.02789306640625</v>
       </c>
       <c r="E100" t="n">
-        <v>0.029449462890625</v>
+        <v>0.026947021484375</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0235595703125</v>
+        <v>0.032501220703125</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0234527587890625</v>
+        <v>0.039794921875</v>
       </c>
       <c r="H100" t="n">
-        <v>0.027496337890625</v>
+        <v>0.026275634765625</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0235595703125</v>
+        <v>0.032501220703125</v>
       </c>
       <c r="J100" t="n">
-        <v>0.031036376953125</v>
+        <v>0.03466796875</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0267791748046875</v>
+        <v>0.033050537109375</v>
       </c>
     </row>
     <row r="101">
@@ -4155,34 +4155,34 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1492919921875</v>
+        <v>-0.075439453125</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1441650390625</v>
+        <v>-0.08514404296875</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.15087890625</v>
+        <v>-0.08245849609375</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1468505859375</v>
+        <v>-0.07550048828125</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1483154296875</v>
+        <v>-0.082763671875</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.147216796875</v>
+        <v>-0.0736083984375</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.1405029296875</v>
+        <v>-0.08160400390625</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1483154296875</v>
+        <v>-0.082763671875</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.1436767578125</v>
+        <v>-0.0738525390625</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.138671875</v>
+        <v>-0.06951904296875</v>
       </c>
     </row>
     <row r="102">
@@ -4192,34 +4192,34 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.05157470703125</v>
+        <v>-0.1129150390625</v>
       </c>
       <c r="C102" t="n">
-        <v>0.044464111328125</v>
+        <v>-0.10296630859375</v>
       </c>
       <c r="D102" t="n">
-        <v>0.032958984375</v>
+        <v>-0.09326171875</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0430908203125</v>
+        <v>-0.10272216796875</v>
       </c>
       <c r="F102" t="n">
-        <v>0.041351318359375</v>
+        <v>-0.09783935546875</v>
       </c>
       <c r="G102" t="n">
-        <v>0.043975830078125</v>
+        <v>-0.09210205078125</v>
       </c>
       <c r="H102" t="n">
-        <v>0.020721435546875</v>
+        <v>-0.0975341796875</v>
       </c>
       <c r="I102" t="n">
-        <v>0.041351318359375</v>
+        <v>-0.09783935546875</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0479736328125</v>
+        <v>-0.116455078125</v>
       </c>
       <c r="K102" t="n">
-        <v>0.040985107421875</v>
+        <v>-0.09539794921875</v>
       </c>
     </row>
     <row r="103">
@@ -4229,34 +4229,34 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.0863037109375</v>
+        <v>0.0576171875</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.07342529296875</v>
+        <v>0.04095458984375</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.05499267578125</v>
+        <v>0.037506103515625</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.08013916015625</v>
+        <v>0.05035400390625</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.06280517578125</v>
+        <v>0.038116455078125</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.06292724609375</v>
+        <v>0.03985595703125</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.0537109375</v>
+        <v>0.038421630859375</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.06280517578125</v>
+        <v>0.038116455078125</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.0863037109375</v>
+        <v>0.058135986328125</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.061187744140625</v>
+        <v>0.0390625</v>
       </c>
     </row>
     <row r="104">
@@ -4266,34 +4266,34 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1123046875</v>
+        <v>-0.3408203125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.112548828125</v>
+        <v>-0.339111328125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.11724853515625</v>
+        <v>-0.3388671875</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1026611328125</v>
+        <v>-0.331787109375</v>
       </c>
       <c r="F104" t="n">
-        <v>0.114013671875</v>
+        <v>-0.33642578125</v>
       </c>
       <c r="G104" t="n">
-        <v>0.10693359375</v>
+        <v>-0.3212890625</v>
       </c>
       <c r="H104" t="n">
-        <v>0.1077880859375</v>
+        <v>-0.343017578125</v>
       </c>
       <c r="I104" t="n">
-        <v>0.114013671875</v>
+        <v>-0.33642578125</v>
       </c>
       <c r="J104" t="n">
-        <v>0.10699462890625</v>
+        <v>-0.341552734375</v>
       </c>
       <c r="K104" t="n">
-        <v>0.11138916015625</v>
+        <v>-0.32861328125</v>
       </c>
     </row>
     <row r="105">
@@ -4303,34 +4303,34 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.10638427734375</v>
+        <v>-0.22021484375</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.10516357421875</v>
+        <v>-0.2364501953125</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.08245849609375</v>
+        <v>-0.241455078125</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.09344482421875</v>
+        <v>-0.216796875</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.0994873046875</v>
+        <v>-0.2384033203125</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.09783935546875</v>
+        <v>-0.222412109375</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.07403564453125</v>
+        <v>-0.241455078125</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.0994873046875</v>
+        <v>-0.2384033203125</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.10540771484375</v>
+        <v>-0.219482421875</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.09649658203125</v>
+        <v>-0.2198486328125</v>
       </c>
     </row>
     <row r="106">
@@ -4340,34 +4340,34 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.051727294921875</v>
+        <v>-0.1265869140625</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.055419921875</v>
+        <v>-0.134521484375</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.04864501953125</v>
+        <v>-0.1343994140625</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.0521240234375</v>
+        <v>-0.12115478515625</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.042205810546875</v>
+        <v>-0.126708984375</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.045379638671875</v>
+        <v>-0.11517333984375</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.04888916015625</v>
+        <v>-0.136962890625</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.042205810546875</v>
+        <v>-0.126708984375</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.048065185546875</v>
+        <v>-0.1273193359375</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.0450439453125</v>
+        <v>-0.11566162109375</v>
       </c>
     </row>
     <row r="107">
@@ -4377,34 +4377,34 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.03680419921875</v>
+        <v>0.11474609375</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.032806396484375</v>
+        <v>0.10833740234375</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.036529541015625</v>
+        <v>0.100830078125</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.039794921875</v>
+        <v>0.11474609375</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.0357666015625</v>
+        <v>0.104736328125</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.037139892578125</v>
+        <v>0.11456298828125</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.03143310546875</v>
+        <v>0.1024169921875</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.0357666015625</v>
+        <v>0.104736328125</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.03509521484375</v>
+        <v>0.11773681640625</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.037017822265625</v>
+        <v>0.11383056640625</v>
       </c>
     </row>
     <row r="108">
@@ -4414,34 +4414,34 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.07391357421875</v>
+        <v>-3.361701965332031e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0582275390625</v>
+        <v>0.003065109252929688</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08782958984375</v>
+        <v>0.007236480712890625</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0655517578125</v>
+        <v>-0.00508880615234375</v>
       </c>
       <c r="F108" t="n">
-        <v>0.07330322265625</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0745849609375</v>
+        <v>-0.0007753372192382812</v>
       </c>
       <c r="H108" t="n">
-        <v>0.09197998046875</v>
+        <v>0.00766754150390625</v>
       </c>
       <c r="I108" t="n">
-        <v>0.07330322265625</v>
+        <v>0.003955841064453125</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06390380859375</v>
+        <v>-0.005435943603515625</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0577392578125</v>
+        <v>-0.0121917724609375</v>
       </c>
     </row>
     <row r="109">
@@ -4451,34 +4451,34 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.0643310546875</v>
+        <v>-0.01207733154296875</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.0634765625</v>
+        <v>-0.002088546752929688</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.055511474609375</v>
+        <v>0.006069183349609375</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.0609130859375</v>
+        <v>-0.01143646240234375</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.060150146484375</v>
+        <v>9.799003601074219e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.058380126953125</v>
+        <v>-0.001582145690917969</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.05084228515625</v>
+        <v>0.003139495849609375</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.060150146484375</v>
+        <v>9.799003601074219e-05</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.06494140625</v>
+        <v>-0.013580322265625</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.06341552734375</v>
+        <v>0.00164031982421875</v>
       </c>
     </row>
     <row r="110">
@@ -4488,34 +4488,34 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0645751953125</v>
+        <v>0.0992431640625</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0560302734375</v>
+        <v>0.10498046875</v>
       </c>
       <c r="D110" t="n">
-        <v>0.050689697265625</v>
+        <v>0.10638427734375</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0704345703125</v>
+        <v>0.10772705078125</v>
       </c>
       <c r="F110" t="n">
-        <v>0.035552978515625</v>
+        <v>0.10662841796875</v>
       </c>
       <c r="G110" t="n">
-        <v>0.050933837890625</v>
+        <v>0.09527587890625</v>
       </c>
       <c r="H110" t="n">
-        <v>0.06689453125</v>
+        <v>0.10400390625</v>
       </c>
       <c r="I110" t="n">
-        <v>0.035552978515625</v>
+        <v>0.10662841796875</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06365966796875</v>
+        <v>0.097412109375</v>
       </c>
       <c r="K110" t="n">
-        <v>0.035614013671875</v>
+        <v>0.10345458984375</v>
       </c>
     </row>
     <row r="111">
@@ -4525,34 +4525,34 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.049957275390625</v>
+        <v>-0.1572265625</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.041015625</v>
+        <v>-0.15576171875</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.05267333984375</v>
+        <v>-0.1556396484375</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.040496826171875</v>
+        <v>-0.15380859375</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.049041748046875</v>
+        <v>-0.15576171875</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.059112548828125</v>
+        <v>-0.1453857421875</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.047576904296875</v>
+        <v>-0.1513671875</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.049041748046875</v>
+        <v>-0.15576171875</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.043792724609375</v>
+        <v>-0.15869140625</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.04937744140625</v>
+        <v>-0.14892578125</v>
       </c>
     </row>
     <row r="112">
@@ -4562,34 +4562,34 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.0589599609375</v>
+        <v>0.0938720703125</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.0517578125</v>
+        <v>0.09283447265625</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.0732421875</v>
+        <v>0.09515380859375</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.051910400390625</v>
+        <v>0.0931396484375</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.04876708984375</v>
+        <v>0.09307861328125</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.0462646484375</v>
+        <v>0.08941650390625</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.07342529296875</v>
+        <v>0.09320068359375</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.04876708984375</v>
+        <v>0.09307861328125</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.045562744140625</v>
+        <v>0.09234619140625</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.04302978515625</v>
+        <v>0.0928955078125</v>
       </c>
     </row>
     <row r="113">
@@ -4599,34 +4599,34 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.0007052421569824219</v>
+        <v>0.05609130859375</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.0051116943359375</v>
+        <v>0.05230712890625</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.0054473876953125</v>
+        <v>0.052154541015625</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.00263214111328125</v>
+        <v>0.05419921875</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.007266998291015625</v>
+        <v>0.052459716796875</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.00786590576171875</v>
+        <v>0.050994873046875</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.005664825439453125</v>
+        <v>0.0517578125</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.007266998291015625</v>
+        <v>0.052459716796875</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.002294540405273438</v>
+        <v>0.0565185546875</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.01047515869140625</v>
+        <v>0.052886962890625</v>
       </c>
     </row>
     <row r="114">
@@ -4636,34 +4636,34 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.058746337890625</v>
+        <v>0.0567626953125</v>
       </c>
       <c r="C114" t="n">
-        <v>0.038116455078125</v>
+        <v>0.054107666015625</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0450439453125</v>
+        <v>0.05181884765625</v>
       </c>
       <c r="E114" t="n">
-        <v>0.046478271484375</v>
+        <v>0.060028076171875</v>
       </c>
       <c r="F114" t="n">
-        <v>0.03887939453125</v>
+        <v>0.048553466796875</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04534912109375</v>
+        <v>0.0462646484375</v>
       </c>
       <c r="H114" t="n">
-        <v>0.040618896484375</v>
+        <v>0.057464599609375</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03887939453125</v>
+        <v>0.048553466796875</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04974365234375</v>
+        <v>0.055328369140625</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0310516357421875</v>
+        <v>0.044219970703125</v>
       </c>
     </row>
     <row r="115">
@@ -4673,34 +4673,34 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.069091796875</v>
+        <v>0.05389404296875</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.06683349609375</v>
+        <v>0.059112548828125</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.06915283203125</v>
+        <v>0.06304931640625</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.06817626953125</v>
+        <v>0.05145263671875</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.068359375</v>
+        <v>0.06378173828125</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.0655517578125</v>
+        <v>0.057708740234375</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.0660400390625</v>
+        <v>0.0640869140625</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.068359375</v>
+        <v>0.06378173828125</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.06475830078125</v>
+        <v>0.053619384765625</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.07098388671875</v>
+        <v>0.05474853515625</v>
       </c>
     </row>
     <row r="116">
@@ -4710,34 +4710,34 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.09814453125</v>
+        <v>-0.1385498046875</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.103271484375</v>
+        <v>-0.153564453125</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.09222412109375</v>
+        <v>-0.1419677734375</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.097412109375</v>
+        <v>-0.1434326171875</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.0946044921875</v>
+        <v>-0.1444091796875</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.0977783203125</v>
+        <v>-0.134521484375</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.09423828125</v>
+        <v>-0.1424560546875</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.0946044921875</v>
+        <v>-0.1444091796875</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.09588623046875</v>
+        <v>-0.138427734375</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.09039306640625</v>
+        <v>-0.13037109375</v>
       </c>
     </row>
     <row r="117">
@@ -4747,34 +4747,34 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1134033203125</v>
+        <v>-0.003126144409179688</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1116943359375</v>
+        <v>-0.01220703125</v>
       </c>
       <c r="D117" t="n">
-        <v>0.10064697265625</v>
+        <v>-0.01161956787109375</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1082763671875</v>
+        <v>-0.014190673828125</v>
       </c>
       <c r="F117" t="n">
-        <v>0.104248046875</v>
+        <v>-0.01068878173828125</v>
       </c>
       <c r="G117" t="n">
-        <v>0.10821533203125</v>
+        <v>-0.0007023811340332031</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0966796875</v>
+        <v>-0.011444091796875</v>
       </c>
       <c r="I117" t="n">
-        <v>0.104248046875</v>
+        <v>-0.01068878173828125</v>
       </c>
       <c r="J117" t="n">
-        <v>0.11175537109375</v>
+        <v>-0.003170013427734375</v>
       </c>
       <c r="K117" t="n">
-        <v>0.10736083984375</v>
+        <v>-0.009552001953125</v>
       </c>
     </row>
     <row r="118">
@@ -4784,34 +4784,34 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.035888671875</v>
+        <v>-0.2259521484375</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.021514892578125</v>
+        <v>-0.24267578125</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0299530029296875</v>
+        <v>-0.2410888671875</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.02630615234375</v>
+        <v>-0.228515625</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.0293426513671875</v>
+        <v>-0.242919921875</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.033721923828125</v>
+        <v>-0.2230224609375</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.02398681640625</v>
+        <v>-0.245361328125</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.0293426513671875</v>
+        <v>-0.242919921875</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.032867431640625</v>
+        <v>-0.2242431640625</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.02447509765625</v>
+        <v>-0.2225341796875</v>
       </c>
     </row>
     <row r="119">
@@ -4821,34 +4821,34 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.07562255859375</v>
+        <v>-0.06475830078125</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.07781982421875</v>
+        <v>-0.067138671875</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.086669921875</v>
+        <v>-0.06817626953125</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.0792236328125</v>
+        <v>-0.06536865234375</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.0845947265625</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.0809326171875</v>
+        <v>-0.0648193359375</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.08868408203125</v>
+        <v>-0.0687255859375</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.0845947265625</v>
+        <v>-0.069091796875</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.068603515625</v>
+        <v>-0.0660400390625</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.08770751953125</v>
+        <v>-0.0731201171875</v>
       </c>
     </row>
     <row r="120">
@@ -4858,34 +4858,34 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.04486083984375</v>
+        <v>-0.1358642578125</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.03076171875</v>
+        <v>-0.1358642578125</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0474853515625</v>
+        <v>-0.13720703125</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.0224609375</v>
+        <v>-0.1380615234375</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.05035400390625</v>
+        <v>-0.1365966796875</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.049713134765625</v>
+        <v>-0.1353759765625</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.042938232421875</v>
+        <v>-0.13671875</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.05035400390625</v>
+        <v>-0.1365966796875</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.0391845703125</v>
+        <v>-0.137451171875</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.0341796875</v>
+        <v>-0.135498046875</v>
       </c>
     </row>
     <row r="121">
@@ -4895,34 +4895,34 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.046142578125</v>
+        <v>-0.1068115234375</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.039215087890625</v>
+        <v>-0.1097412109375</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.03790283203125</v>
+        <v>-0.11474609375</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.040283203125</v>
+        <v>-0.1002197265625</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.0445556640625</v>
+        <v>-0.1107177734375</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.04681396484375</v>
+        <v>-0.0992431640625</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.033660888671875</v>
+        <v>-0.109375</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.0445556640625</v>
+        <v>-0.1107177734375</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.0460205078125</v>
+        <v>-0.10577392578125</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.04345703125</v>
+        <v>-0.10064697265625</v>
       </c>
     </row>
     <row r="122">
@@ -4932,34 +4932,34 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.1387939453125</v>
+        <v>-0.1348876953125</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1258544921875</v>
+        <v>-0.1302490234375</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1524658203125</v>
+        <v>-0.1234130859375</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.12322998046875</v>
+        <v>-0.1376953125</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.14453125</v>
+        <v>-0.1251220703125</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.1480712890625</v>
+        <v>-0.1285400390625</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.1519775390625</v>
+        <v>-0.12744140625</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.14453125</v>
+        <v>-0.1251220703125</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.140625</v>
+        <v>-0.133544921875</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.1363525390625</v>
+        <v>-0.1290283203125</v>
       </c>
     </row>
     <row r="123">
@@ -4969,34 +4969,34 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0413818359375</v>
+        <v>-0.0229949951171875</v>
       </c>
       <c r="C123" t="n">
-        <v>0.042724609375</v>
+        <v>-0.0121612548828125</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04638671875</v>
+        <v>-0.006710052490234375</v>
       </c>
       <c r="E123" t="n">
-        <v>0.043121337890625</v>
+        <v>-0.0212860107421875</v>
       </c>
       <c r="F123" t="n">
-        <v>0.048095703125</v>
+        <v>-0.011016845703125</v>
       </c>
       <c r="G123" t="n">
-        <v>0.046112060546875</v>
+        <v>-0.0099639892578125</v>
       </c>
       <c r="H123" t="n">
-        <v>0.045684814453125</v>
+        <v>-0.009429931640625</v>
       </c>
       <c r="I123" t="n">
-        <v>0.048095703125</v>
+        <v>-0.011016845703125</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0439453125</v>
+        <v>-0.0279541015625</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0491943359375</v>
+        <v>-0.012847900390625</v>
       </c>
     </row>
     <row r="124">
@@ -5006,34 +5006,34 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.00261688232421875</v>
+        <v>0.234619140625</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.003435134887695312</v>
+        <v>0.233642578125</v>
       </c>
       <c r="D124" t="n">
-        <v>0.003589630126953125</v>
+        <v>0.2303466796875</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.006023406982421875</v>
+        <v>0.2236328125</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00466156005859375</v>
+        <v>0.2315673828125</v>
       </c>
       <c r="G124" t="n">
-        <v>0.003267288208007812</v>
+        <v>0.2166748046875</v>
       </c>
       <c r="H124" t="n">
-        <v>0.00785064697265625</v>
+        <v>0.2314453125</v>
       </c>
       <c r="I124" t="n">
-        <v>0.00466156005859375</v>
+        <v>0.2315673828125</v>
       </c>
       <c r="J124" t="n">
-        <v>0.004581451416015625</v>
+        <v>0.2335205078125</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.0072021484375</v>
+        <v>0.209228515625</v>
       </c>
     </row>
     <row r="125">
@@ -5043,34 +5043,34 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.00994873046875</v>
+        <v>0.051361083984375</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.00267791748046875</v>
+        <v>0.03131103515625</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.01338958740234375</v>
+        <v>0.0312347412109375</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.0211944580078125</v>
+        <v>0.038818359375</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.0181121826171875</v>
+        <v>0.02740478515625</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.0237884521484375</v>
+        <v>0.022064208984375</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0203704833984375</v>
+        <v>0.03179931640625</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.0181121826171875</v>
+        <v>0.02740478515625</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.01084136962890625</v>
+        <v>0.04840087890625</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.0293426513671875</v>
+        <v>0.024078369140625</v>
       </c>
     </row>
     <row r="126">
@@ -5080,34 +5080,34 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0229034423828125</v>
+        <v>-0.07659912109375</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0202789306640625</v>
+        <v>-0.0670166015625</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0161285400390625</v>
+        <v>-0.06695556640625</v>
       </c>
       <c r="E126" t="n">
-        <v>0.02117919921875</v>
+        <v>-0.06964111328125</v>
       </c>
       <c r="F126" t="n">
-        <v>0.023651123046875</v>
+        <v>-0.0654296875</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0254974365234375</v>
+        <v>-0.0748291015625</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0170135498046875</v>
+        <v>-0.0699462890625</v>
       </c>
       <c r="I126" t="n">
-        <v>0.023651123046875</v>
+        <v>-0.0654296875</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0249786376953125</v>
+        <v>-0.0767822265625</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0250701904296875</v>
+        <v>-0.0657958984375</v>
       </c>
     </row>
     <row r="127">
@@ -5117,34 +5117,34 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.1021728515625</v>
+        <v>-0.255126953125</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.10076904296875</v>
+        <v>-0.253173828125</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.12066650390625</v>
+        <v>-0.253662109375</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.09454345703125</v>
+        <v>-0.2484130859375</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.11639404296875</v>
+        <v>-0.255859375</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.10992431640625</v>
+        <v>-0.2509765625</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.1199951171875</v>
+        <v>-0.252685546875</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.11639404296875</v>
+        <v>-0.255859375</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.10003662109375</v>
+        <v>-0.25634765625</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.109619140625</v>
+        <v>-0.251708984375</v>
       </c>
     </row>
     <row r="128">
@@ -5154,34 +5154,34 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.155029296875</v>
+        <v>0.159423828125</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1534423828125</v>
+        <v>0.183837890625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1468505859375</v>
+        <v>0.18359375</v>
       </c>
       <c r="E128" t="n">
-        <v>0.155029296875</v>
+        <v>0.171142578125</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1475830078125</v>
+        <v>0.1861572265625</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1517333984375</v>
+        <v>0.170166015625</v>
       </c>
       <c r="H128" t="n">
-        <v>0.14013671875</v>
+        <v>0.1756591796875</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1475830078125</v>
+        <v>0.1861572265625</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1551513671875</v>
+        <v>0.15869140625</v>
       </c>
       <c r="K128" t="n">
-        <v>0.150146484375</v>
+        <v>0.17138671875</v>
       </c>
     </row>
     <row r="129">
@@ -5191,34 +5191,34 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.03094482421875</v>
+        <v>-0.1192626953125</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.0312347412109375</v>
+        <v>-0.11578369140625</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0285491943359375</v>
+        <v>-0.113037109375</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.025970458984375</v>
+        <v>-0.114990234375</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.035369873046875</v>
+        <v>-0.11114501953125</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.032012939453125</v>
+        <v>-0.11041259765625</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.02972412109375</v>
+        <v>-0.11395263671875</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.035369873046875</v>
+        <v>-0.11114501953125</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.03289794921875</v>
+        <v>-0.11981201171875</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.032989501953125</v>
+        <v>-0.105224609375</v>
       </c>
     </row>
     <row r="130">
@@ -5228,34 +5228,34 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.06231689453125</v>
+        <v>0.119384765625</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.0572509765625</v>
+        <v>0.1241455078125</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.05047607421875</v>
+        <v>0.11993408203125</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.058074951171875</v>
+        <v>0.11712646484375</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.055389404296875</v>
+        <v>0.11773681640625</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.056488037109375</v>
+        <v>0.11236572265625</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.048065185546875</v>
+        <v>0.1259765625</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.055389404296875</v>
+        <v>0.11773681640625</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.06414794921875</v>
+        <v>0.118408203125</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.050689697265625</v>
+        <v>0.11395263671875</v>
       </c>
     </row>
     <row r="131">
@@ -5265,34 +5265,34 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.002531051635742188</v>
+        <v>-0.008331298828125</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.0006303787231445312</v>
+        <v>-0.0242919921875</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01959228515625</v>
+        <v>-0.0232391357421875</v>
       </c>
       <c r="E131" t="n">
-        <v>0.012115478515625</v>
+        <v>-0.00914764404296875</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.0239105224609375</v>
+        <v>-0.0242156982421875</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.0167236328125</v>
+        <v>-0.0218048095703125</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.01403045654296875</v>
+        <v>-0.02020263671875</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.0239105224609375</v>
+        <v>-0.0242156982421875</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.007770538330078125</v>
+        <v>-0.01187896728515625</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.0195159912109375</v>
+        <v>-0.019287109375</v>
       </c>
     </row>
     <row r="132">
@@ -5302,34 +5302,34 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.08209228515625</v>
+        <v>-0.1781005859375</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.07269287109375</v>
+        <v>-0.16796875</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.08013916015625</v>
+        <v>-0.1661376953125</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.06439208984375</v>
+        <v>-0.1719970703125</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.09735107421875</v>
+        <v>-0.169921875</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.0902099609375</v>
+        <v>-0.17724609375</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.08123779296875</v>
+        <v>-0.16796875</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.09735107421875</v>
+        <v>-0.169921875</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.0926513671875</v>
+        <v>-0.179931640625</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.09014892578125</v>
+        <v>-0.1678466796875</v>
       </c>
     </row>
     <row r="133">
@@ -5339,34 +5339,34 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.0156402587890625</v>
+        <v>-0.264892578125</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0209808349609375</v>
+        <v>-0.2529296875</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.0072479248046875</v>
+        <v>-0.256103515625</v>
       </c>
       <c r="E133" t="n">
-        <v>0.023651123046875</v>
+        <v>-0.259521484375</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.0104217529296875</v>
+        <v>-0.25439453125</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.0143890380859375</v>
+        <v>-0.2490234375</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.0006356239318847656</v>
+        <v>-0.259033203125</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.0104217529296875</v>
+        <v>-0.25439453125</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0121002197265625</v>
+        <v>-0.264892578125</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.007312774658203125</v>
+        <v>-0.2474365234375</v>
       </c>
     </row>
     <row r="134">
@@ -5376,34 +5376,34 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.01275634765625</v>
+        <v>0.1815185546875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01018524169921875</v>
+        <v>0.189453125</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0186920166015625</v>
+        <v>0.1905517578125</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01549530029296875</v>
+        <v>0.18603515625</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.0125885009765625</v>
+        <v>0.186767578125</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.0080413818359375</v>
+        <v>0.1822509765625</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0201873779296875</v>
+        <v>0.193603515625</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.0125885009765625</v>
+        <v>0.186767578125</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0100250244140625</v>
+        <v>0.180908203125</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.00917816162109375</v>
+        <v>0.1851806640625</v>
       </c>
     </row>
     <row r="135">
@@ -5413,34 +5413,34 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.00931549072265625</v>
+        <v>-0.394775390625</v>
       </c>
       <c r="C135" t="n">
-        <v>0.005615234375</v>
+        <v>-0.39892578125</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.0196380615234375</v>
+        <v>-0.3994140625</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00542449951171875</v>
+        <v>-0.388427734375</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.00907135009765625</v>
+        <v>-0.393798828125</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.01081085205078125</v>
+        <v>-0.375732421875</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.0254058837890625</v>
+        <v>-0.402099609375</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.00907135009765625</v>
+        <v>-0.393798828125</v>
       </c>
       <c r="J135" t="n">
-        <v>0.00852203369140625</v>
+        <v>-0.394287109375</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.00469207763671875</v>
+        <v>-0.38330078125</v>
       </c>
     </row>
     <row r="136">
@@ -5450,34 +5450,34 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.003963470458984375</v>
+        <v>0.149169921875</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.004619598388671875</v>
+        <v>0.14013671875</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.009735107421875</v>
+        <v>0.133056640625</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.001648902893066406</v>
+        <v>0.147216796875</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.0110321044921875</v>
+        <v>0.1368408203125</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.00263214111328125</v>
+        <v>0.141357421875</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.01352691650390625</v>
+        <v>0.134521484375</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.0110321044921875</v>
+        <v>0.1368408203125</v>
       </c>
       <c r="J136" t="n">
-        <v>0.001552581787109375</v>
+        <v>0.1510009765625</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.0076904296875</v>
+        <v>0.1329345703125</v>
       </c>
     </row>
     <row r="137">
@@ -5487,34 +5487,34 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.09112548828125</v>
+        <v>0.0169525146484375</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.08465576171875</v>
+        <v>0.022674560546875</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.0909423828125</v>
+        <v>0.022979736328125</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.09027099609375</v>
+        <v>0.01788330078125</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.0863037109375</v>
+        <v>0.0230560302734375</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.09130859375</v>
+        <v>0.0178680419921875</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.08648681640625</v>
+        <v>0.025604248046875</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.0863037109375</v>
+        <v>0.0230560302734375</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.0836181640625</v>
+        <v>0.0182342529296875</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.08770751953125</v>
+        <v>0.02392578125</v>
       </c>
     </row>
     <row r="138">
@@ -5524,34 +5524,34 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.024932861328125</v>
+        <v>-0.12322998046875</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0243988037109375</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00830078125</v>
+        <v>-0.1378173828125</v>
       </c>
       <c r="E138" t="n">
-        <v>0.034820556640625</v>
+        <v>-0.12310791015625</v>
       </c>
       <c r="F138" t="n">
-        <v>0.002534866333007812</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="G138" t="n">
-        <v>0.01198577880859375</v>
+        <v>-0.12445068359375</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0144805908203125</v>
+        <v>-0.133544921875</v>
       </c>
       <c r="I138" t="n">
-        <v>0.002534866333007812</v>
+        <v>-0.1363525390625</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03021240234375</v>
+        <v>-0.1240234375</v>
       </c>
       <c r="K138" t="n">
-        <v>0.01100921630859375</v>
+        <v>-0.127685546875</v>
       </c>
     </row>
     <row r="139">
@@ -5561,34 +5561,34 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0755615234375</v>
+        <v>-0.07733154296875</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06298828125</v>
+        <v>-0.06488037109375</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0380859375</v>
+        <v>-0.06884765625</v>
       </c>
       <c r="E139" t="n">
-        <v>0.06451416015625</v>
+        <v>-0.07110595703125</v>
       </c>
       <c r="F139" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.064208984375</v>
       </c>
       <c r="G139" t="n">
-        <v>0.056488037109375</v>
+        <v>-0.0621337890625</v>
       </c>
       <c r="H139" t="n">
-        <v>0.035247802734375</v>
+        <v>-0.0660400390625</v>
       </c>
       <c r="I139" t="n">
-        <v>0.049957275390625</v>
+        <v>-0.064208984375</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0738525390625</v>
+        <v>-0.07537841796875</v>
       </c>
       <c r="K139" t="n">
-        <v>0.049713134765625</v>
+        <v>-0.0672607421875</v>
       </c>
     </row>
     <row r="140">
@@ -5598,34 +5598,34 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.1849365234375</v>
+        <v>-0.20849609375</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1878662109375</v>
+        <v>-0.2099609375</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1756591796875</v>
+        <v>-0.2110595703125</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1824951171875</v>
+        <v>-0.2071533203125</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.1964111328125</v>
+        <v>-0.2139892578125</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.1990966796875</v>
+        <v>-0.2054443359375</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.1722412109375</v>
+        <v>-0.2135009765625</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1964111328125</v>
+        <v>-0.2139892578125</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.188720703125</v>
+        <v>-0.208740234375</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.20068359375</v>
+        <v>-0.207275390625</v>
       </c>
     </row>
     <row r="141">
@@ -5635,34 +5635,34 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0303192138671875</v>
+        <v>0.102783203125</v>
       </c>
       <c r="C141" t="n">
-        <v>0.044158935546875</v>
+        <v>0.085693359375</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008453369140625</v>
+        <v>0.08868408203125</v>
       </c>
       <c r="E141" t="n">
-        <v>0.025543212890625</v>
+        <v>0.09716796875</v>
       </c>
       <c r="F141" t="n">
-        <v>0.019989013671875</v>
+        <v>0.08636474609375</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0276336669921875</v>
+        <v>0.07879638671875</v>
       </c>
       <c r="H141" t="n">
-        <v>0.005573272705078125</v>
+        <v>0.09136962890625</v>
       </c>
       <c r="I141" t="n">
-        <v>0.019989013671875</v>
+        <v>0.08636474609375</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0408935546875</v>
+        <v>0.1060791015625</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0184173583984375</v>
+        <v>0.086669921875</v>
       </c>
     </row>
     <row r="142">
@@ -5672,34 +5672,34 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.08233642578125</v>
+        <v>-0.072509765625</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.081787109375</v>
+        <v>-0.070068359375</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0831298828125</v>
+        <v>-0.0716552734375</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.079345703125</v>
+        <v>-0.06768798828125</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.07373046875</v>
+        <v>-0.06689453125</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.07763671875</v>
+        <v>-0.057098388671875</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.07623291015625</v>
+        <v>-0.0732421875</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.07373046875</v>
+        <v>-0.06689453125</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.0753173828125</v>
+        <v>-0.07086181640625</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.084716796875</v>
+        <v>-0.06561279296875</v>
       </c>
     </row>
     <row r="143">
@@ -5709,34 +5709,34 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.0301361083984375</v>
+        <v>0.08551025390625</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.03594970703125</v>
+        <v>0.08782958984375</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0090179443359375</v>
+        <v>0.0860595703125</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.025909423828125</v>
+        <v>0.07452392578125</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.01392364501953125</v>
+        <v>0.09112548828125</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.01483154296875</v>
+        <v>0.0743408203125</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.00701141357421875</v>
+        <v>0.08575439453125</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.01392364501953125</v>
+        <v>0.09112548828125</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.03082275390625</v>
+        <v>0.08770751953125</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.0108184814453125</v>
+        <v>0.07574462890625</v>
       </c>
     </row>
     <row r="144">
@@ -5746,34 +5746,34 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.050689697265625</v>
+        <v>-0.089599609375</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05828857421875</v>
+        <v>-0.09295654296875</v>
       </c>
       <c r="D144" t="n">
-        <v>0.048736572265625</v>
+        <v>-0.09161376953125</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0648193359375</v>
+        <v>-0.0797119140625</v>
       </c>
       <c r="F144" t="n">
-        <v>0.044769287109375</v>
+        <v>-0.08856201171875</v>
       </c>
       <c r="G144" t="n">
-        <v>0.047271728515625</v>
+        <v>-0.07916259765625</v>
       </c>
       <c r="H144" t="n">
-        <v>0.057525634765625</v>
+        <v>-0.0919189453125</v>
       </c>
       <c r="I144" t="n">
-        <v>0.044769287109375</v>
+        <v>-0.08856201171875</v>
       </c>
       <c r="J144" t="n">
-        <v>0.053924560546875</v>
+        <v>-0.08984375</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05126953125</v>
+        <v>-0.072021484375</v>
       </c>
     </row>
     <row r="145">
@@ -5783,34 +5783,34 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.2032470703125</v>
+        <v>-0.01495361328125</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1932373046875</v>
+        <v>-0.019195556640625</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.2012939453125</v>
+        <v>-0.029296875</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.202392578125</v>
+        <v>-0.01263427734375</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.21142578125</v>
+        <v>-0.026885986328125</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.2188720703125</v>
+        <v>-0.0274505615234375</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.189208984375</v>
+        <v>-0.0228118896484375</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.21142578125</v>
+        <v>-0.026885986328125</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.198974609375</v>
+        <v>-0.0171356201171875</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.2164306640625</v>
+        <v>-0.0264892578125</v>
       </c>
     </row>
     <row r="146">
@@ -5820,34 +5820,34 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.032989501953125</v>
+        <v>-0.1292724609375</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0231475830078125</v>
+        <v>-0.135009765625</v>
       </c>
       <c r="D146" t="n">
-        <v>0.04010009765625</v>
+        <v>-0.1400146484375</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0270843505859375</v>
+        <v>-0.1300048828125</v>
       </c>
       <c r="F146" t="n">
-        <v>0.033050537109375</v>
+        <v>-0.1375732421875</v>
       </c>
       <c r="G146" t="n">
-        <v>0.031829833984375</v>
+        <v>-0.1236572265625</v>
       </c>
       <c r="H146" t="n">
-        <v>0.040557861328125</v>
+        <v>-0.1385498046875</v>
       </c>
       <c r="I146" t="n">
-        <v>0.033050537109375</v>
+        <v>-0.1375732421875</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0309906005859375</v>
+        <v>-0.1258544921875</v>
       </c>
       <c r="K146" t="n">
-        <v>0.036346435546875</v>
+        <v>-0.12548828125</v>
       </c>
     </row>
     <row r="147">
@@ -5857,34 +5857,34 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.1119384765625</v>
+        <v>-0.05511474609375</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.10955810546875</v>
+        <v>-0.055084228515625</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.095458984375</v>
+        <v>-0.058746337890625</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.11224365234375</v>
+        <v>-0.0523681640625</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.0933837890625</v>
+        <v>-0.058258056640625</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.0982666015625</v>
+        <v>-0.04766845703125</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.08831787109375</v>
+        <v>-0.054351806640625</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.0933837890625</v>
+        <v>-0.058258056640625</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.11090087890625</v>
+        <v>-0.0523681640625</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.0986328125</v>
+        <v>-0.04052734375</v>
       </c>
     </row>
     <row r="148">
@@ -5894,34 +5894,34 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.11431884765625</v>
+        <v>0.0209808349609375</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.11346435546875</v>
+        <v>0.0352783203125</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.110107421875</v>
+        <v>0.031829833984375</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.11376953125</v>
+        <v>0.018951416015625</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.11474609375</v>
+        <v>0.032196044921875</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.112060546875</v>
+        <v>0.02606201171875</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.1190185546875</v>
+        <v>0.030731201171875</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.11474609375</v>
+        <v>0.032196044921875</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.1134033203125</v>
+        <v>0.0200653076171875</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.11181640625</v>
+        <v>0.0278778076171875</v>
       </c>
     </row>
     <row r="149">
@@ -5931,34 +5931,34 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.0897216796875</v>
+        <v>-0.1060791015625</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.09124755859375</v>
+        <v>-0.117919921875</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.0828857421875</v>
+        <v>-0.11981201171875</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.09576416015625</v>
+        <v>-0.10150146484375</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.0906982421875</v>
+        <v>-0.11279296875</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.0885009765625</v>
+        <v>-0.10809326171875</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.0772705078125</v>
+        <v>-0.11981201171875</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.0906982421875</v>
+        <v>-0.11279296875</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.090576171875</v>
+        <v>-0.10595703125</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.09381103515625</v>
+        <v>-0.10345458984375</v>
       </c>
     </row>
     <row r="150">
@@ -5968,34 +5968,34 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.0170440673828125</v>
+        <v>-0.2158203125</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0219573974609375</v>
+        <v>-0.2091064453125</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0165863037109375</v>
+        <v>-0.2044677734375</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.0104522705078125</v>
+        <v>-0.2109375</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.01739501953125</v>
+        <v>-0.2091064453125</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.012725830078125</v>
+        <v>-0.2059326171875</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.01837158203125</v>
+        <v>-0.2052001953125</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.01739501953125</v>
+        <v>-0.2091064453125</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.0194854736328125</v>
+        <v>-0.2181396484375</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.00809478759765625</v>
+        <v>-0.2034912109375</v>
       </c>
     </row>
     <row r="151">
@@ -6005,34 +6005,34 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.01806640625</v>
+        <v>-0.09271240234375</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.0237884521484375</v>
+        <v>-0.0755615234375</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.0217132568359375</v>
+        <v>-0.08331298828125</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.03240966796875</v>
+        <v>-0.07867431640625</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.01324462890625</v>
+        <v>-0.0848388671875</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.00794219970703125</v>
+        <v>-0.08111572265625</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.0165863037109375</v>
+        <v>-0.07464599609375</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.01324462890625</v>
+        <v>-0.0848388671875</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.01387786865234375</v>
+        <v>-0.09088134765625</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.027801513671875</v>
+        <v>-0.075439453125</v>
       </c>
     </row>
   </sheetData>
